--- a/films.xlsx
+++ b/films.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B100"/>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,16 @@
           <t>Title</t>
         </is>
       </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Director</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
@@ -451,7 +461,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>0078748</t>
+          <t>Alien</t>
         </is>
       </c>
     </row>
@@ -463,7 +473,7 @@
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>0093773</t>
+          <t>Predator</t>
         </is>
       </c>
     </row>
@@ -475,7 +485,7 @@
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>1375666</t>
+          <t>Inception</t>
         </is>
       </c>
     </row>
@@ -487,7 +497,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0090605</t>
+          <t>Aliens</t>
         </is>
       </c>
     </row>
@@ -499,7 +509,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0167261</t>
+          <t>The Lord of the Rings: The Two Towers</t>
         </is>
       </c>
     </row>
@@ -511,7 +521,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0369339</t>
+          <t>Collateral</t>
         </is>
       </c>
     </row>
@@ -523,7 +533,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>0372784</t>
+          <t>Batman Begins</t>
         </is>
       </c>
     </row>
@@ -535,7 +545,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0468569</t>
+          <t>The Dark Knight</t>
         </is>
       </c>
     </row>
@@ -547,7 +557,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0080455</t>
+          <t>The Blues Brothers</t>
         </is>
       </c>
     </row>
@@ -559,7 +569,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>0167260</t>
+          <t>The Lord of the Rings: The Return of the King</t>
         </is>
       </c>
     </row>
@@ -571,7 +581,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>0120737</t>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
         </is>
       </c>
     </row>
@@ -583,7 +593,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>0208092</t>
+          <t>Snatch</t>
         </is>
       </c>
     </row>
@@ -595,7 +605,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>0253556</t>
+          <t>Reign of Fire</t>
         </is>
       </c>
     </row>
@@ -607,7 +617,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>0238380</t>
+          <t>Equilibrium</t>
         </is>
       </c>
     </row>
@@ -619,7 +629,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>0209144</t>
+          <t>Memento</t>
         </is>
       </c>
     </row>
@@ -631,7 +641,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>0278504</t>
+          <t>Insomnia</t>
         </is>
       </c>
     </row>
@@ -643,7 +653,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>0076740</t>
+          <t>Sorcerer</t>
         </is>
       </c>
     </row>
@@ -655,7 +665,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>0090180</t>
+          <t>To Live and Die in L.A.</t>
         </is>
       </c>
     </row>
@@ -667,7 +677,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>0147800</t>
+          <t>10 Things I Hate About You</t>
         </is>
       </c>
     </row>
@@ -679,7 +689,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>0112864</t>
+          <t>Die Hard with a Vengeance</t>
         </is>
       </c>
     </row>
@@ -691,7 +701,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>0114369</t>
+          <t>Se7en</t>
         </is>
       </c>
     </row>
@@ -703,7 +713,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>0113189</t>
+          <t>GoldenEye</t>
         </is>
       </c>
     </row>
@@ -715,7 +725,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>0381061</t>
+          <t>Casino Royale</t>
         </is>
       </c>
     </row>
@@ -727,7 +737,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>0075005</t>
+          <t>The Omen</t>
         </is>
       </c>
     </row>
@@ -739,7 +749,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>1853728</t>
+          <t>Django Unchained</t>
         </is>
       </c>
     </row>
@@ -751,7 +761,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>0110912</t>
+          <t>Pulp Fiction</t>
         </is>
       </c>
     </row>
@@ -763,7 +773,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>0361748</t>
+          <t>Inglourious Basterds</t>
         </is>
       </c>
     </row>
@@ -775,7 +785,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>1392214</t>
+          <t>Prisoners</t>
         </is>
       </c>
     </row>
@@ -787,7 +797,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>1856101</t>
+          <t>Blade Runner 2049</t>
         </is>
       </c>
     </row>
@@ -799,7 +809,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>3397884</t>
+          <t>Sicario</t>
         </is>
       </c>
     </row>
@@ -811,7 +821,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>0119081</t>
+          <t>Event Horizon</t>
         </is>
       </c>
     </row>
@@ -821,6 +831,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>They Live</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
@@ -828,6 +843,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Hard Target</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
@@ -835,6 +855,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Dodgeball: A True Underdog Story</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
@@ -842,6 +867,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Gladiator</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
@@ -849,6 +879,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Black Hawk Down</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
@@ -856,6 +891,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>O Brother, Where Art Thou?</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
@@ -863,6 +903,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Fargo</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
@@ -870,6 +915,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Tombstone</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
@@ -877,6 +927,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Per un pugno di dollari</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
@@ -884,6 +939,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Per qualche dollaro in più</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
@@ -891,6 +951,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Gran Torino</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
@@ -898,6 +963,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Alien³</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
@@ -905,6 +975,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Wedding Crashers</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
@@ -912,6 +987,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Napoleon Dynamite</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
@@ -919,6 +999,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Blade Runner</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
@@ -926,6 +1011,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Terminator 2: Judgment Day</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
@@ -933,6 +1023,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>The Replacements</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
@@ -940,6 +1035,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Cop Land</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
@@ -947,6 +1047,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Jurassic Park</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
@@ -954,6 +1059,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Transformers</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
@@ -961,6 +1071,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Dirty Harry</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
@@ -968,6 +1083,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Serbuan maut 2: Berandal</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
@@ -975,6 +1095,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Blade</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
@@ -982,6 +1107,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Top Gun: Maverick</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
@@ -989,6 +1119,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Gone in Sixty Seconds</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
@@ -996,6 +1131,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Donnie Darko</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
@@ -1003,6 +1143,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Léon</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
@@ -1010,6 +1155,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Happy Gilmore</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
@@ -1017,6 +1167,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Mean Girls</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
@@ -1024,6 +1179,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Mulholland Dr.</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
@@ -1031,6 +1191,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Star Wars: Episode VI - Return of the Jedi</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
@@ -1038,6 +1203,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
@@ -1045,6 +1215,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>The Iron Giant</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
@@ -1052,6 +1227,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Toy Story 2</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
@@ -1059,6 +1239,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Mission: Impossible II</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
@@ -1066,6 +1251,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Mission: Impossible - Fallout</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
@@ -1073,6 +1263,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Smokey and the Bandit</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
@@ -1080,6 +1275,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>The French Connection</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
@@ -1087,6 +1287,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Waiting...</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
@@ -1094,6 +1299,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Broken Arrow</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
@@ -1101,6 +1311,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Ace Ventura: Pet Detective</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
@@ -1108,6 +1323,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Heat</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
@@ -1115,6 +1335,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Green Zone</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
@@ -1122,6 +1347,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Back to the Future Part II</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
@@ -1129,6 +1359,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Kingdom of Heaven</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
@@ -1136,6 +1371,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>Lethal Weapon 2</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
@@ -1143,6 +1383,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>No Country for Old Men</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
@@ -1150,6 +1395,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Outland</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
@@ -1157,6 +1407,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>True Romance</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
@@ -1164,6 +1419,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Glengarry Glen Ross</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
@@ -1171,6 +1431,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Starship Troopers</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
@@ -1178,6 +1443,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>A Bridge Too Far</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
@@ -1185,6 +1455,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>The Thin Red Line</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
@@ -1192,6 +1467,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Con Air</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
@@ -1199,6 +1479,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Le fabuleux destin d'Amélie Poulain</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
@@ -1206,6 +1491,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>Predator 2</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
@@ -1213,6 +1503,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>An Officer and a Gentleman</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
@@ -1220,6 +1515,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>Twister</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
@@ -1227,6 +1527,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>Rocky II</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
@@ -1234,6 +1539,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>There Will Be Blood</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
@@ -1241,6 +1551,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>Any Given Sunday</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
@@ -1248,6 +1563,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>Strangers on a Train</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
@@ -1255,6 +1575,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
@@ -1262,6 +1587,11 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>Lat sau san taam</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
@@ -1269,11 +1599,21 @@
           <t>*</t>
         </is>
       </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>Total Recall</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
           <t>*</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>American History X</t>
         </is>
       </c>
     </row>

--- a/films.xlsx
+++ b/films.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,6 +41,12 @@
       <name val="Verdana"/>
       <b val="1"/>
       <color rgb="00FF6600"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <color rgb="00FFFF99"/>
       <sz val="18"/>
     </font>
     <font>
@@ -83,7 +89,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -91,7 +97,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -457,7 +464,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,7 +495,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Alien</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -496,7 +510,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n"/>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Predator</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -504,7 +525,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Inception</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -512,7 +540,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Aliens</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -520,7 +555,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -528,7 +570,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Collateral</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -536,7 +585,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Batman Begins</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -544,7 +600,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>The Dark Knight</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -552,7 +615,14 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>The Blues Brothers</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -1273,6 +1343,20 @@
         </is>
       </c>
       <c r="B100" s="5" t="n"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="6" t="inlineStr">
+        <is>
+          <t>Year with most Films</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="6" t="inlineStr">
+        <is>
+          <t>Most Films by Director</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/films.xlsx
+++ b/films.xlsx
@@ -495,14 +495,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B2" s="5" t="inlineStr">
-        <is>
-          <t>Alien</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>1979</v>
-      </c>
+      <c r="B2" s="5" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -510,14 +503,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B3" s="5" t="inlineStr">
-        <is>
-          <t>Predator</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>1987</v>
-      </c>
+      <c r="B3" s="5" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -525,14 +511,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B4" s="5" t="inlineStr">
-        <is>
-          <t>Inception</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>2010</v>
-      </c>
+      <c r="B4" s="5" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -540,14 +519,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Aliens</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1986</v>
-      </c>
+      <c r="B5" s="5" t="n"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -555,14 +527,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Two Towers</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2002</v>
-      </c>
+      <c r="B6" s="5" t="n"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -570,14 +535,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Collateral</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2004</v>
-      </c>
+      <c r="B7" s="5" t="n"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -585,14 +543,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Batman Begins</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2005</v>
-      </c>
+      <c r="B8" s="5" t="n"/>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -600,14 +551,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>The Dark Knight</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2008</v>
-      </c>
+      <c r="B9" s="5" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -615,14 +559,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>The Blues Brothers</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1980</v>
-      </c>
+      <c r="B10" s="5" t="n"/>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">

--- a/films.xlsx
+++ b/films.xlsx
@@ -495,7 +495,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B2" s="5" t="n"/>
+      <c r="B2" s="5" t="inlineStr">
+        <is>
+          <t>Alien</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -503,7 +515,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B3" s="5" t="n"/>
+      <c r="B3" s="5" t="inlineStr">
+        <is>
+          <t>Predator</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>John McTiernan</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>1987</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -511,7 +535,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B4" s="5" t="n"/>
+      <c r="B4" s="5" t="inlineStr">
+        <is>
+          <t>Inception</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -519,7 +555,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B5" s="5" t="n"/>
+      <c r="B5" s="5" t="inlineStr">
+        <is>
+          <t>Aliens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>James Cameron</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1986</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
@@ -527,7 +575,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B6" s="5" t="n"/>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
@@ -535,7 +595,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B7" s="5" t="n"/>
+      <c r="B7" s="5" t="inlineStr">
+        <is>
+          <t>Collateral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Michael Mann</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
@@ -543,7 +615,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B8" s="5" t="n"/>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>Batman Begins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
@@ -551,7 +635,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B9" s="5" t="n"/>
+      <c r="B9" s="5" t="inlineStr">
+        <is>
+          <t>The Dark Knight</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
@@ -559,7 +655,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B10" s="5" t="n"/>
+      <c r="B10" s="5" t="inlineStr">
+        <is>
+          <t>The Blues Brothers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>John Landis</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1980</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
@@ -567,7 +675,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B11" s="5" t="n"/>
+      <c r="B11" s="5" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Return of the King</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2003</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -575,7 +695,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B12" s="5" t="n"/>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -583,7 +715,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B13" s="5" t="n"/>
+      <c r="B13" s="5" t="inlineStr">
+        <is>
+          <t>Snatch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -591,7 +735,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B14" s="5" t="n"/>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>Reign of Fire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rob Bowman</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -599,7 +755,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B15" s="5" t="n"/>
+      <c r="B15" s="5" t="inlineStr">
+        <is>
+          <t>Equilibrium</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kurt Wimmer</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -607,7 +775,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B16" s="5" t="n"/>
+      <c r="B16" s="5" t="inlineStr">
+        <is>
+          <t>Memento</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -615,7 +795,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B17" s="5" t="n"/>
+      <c r="B17" s="5" t="inlineStr">
+        <is>
+          <t>Insomnia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2002</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -623,7 +815,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B18" s="5" t="n"/>
+      <c r="B18" s="5" t="inlineStr">
+        <is>
+          <t>Sorcerer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>William Friedkin</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -631,7 +835,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B19" s="5" t="n"/>
+      <c r="B19" s="5" t="inlineStr">
+        <is>
+          <t>To Live and Die in L.A.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>William Friedkin</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1985</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -639,7 +855,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B20" s="5" t="n"/>
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>10 Things I Hate About You</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gil Junger</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -647,7 +875,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B21" s="5" t="n"/>
+      <c r="B21" s="5" t="inlineStr">
+        <is>
+          <t>Die Hard with a Vengeance</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>John McTiernan</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -655,7 +895,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B22" s="5" t="n"/>
+      <c r="B22" s="5" t="inlineStr">
+        <is>
+          <t>Se7en</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -663,7 +915,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B23" s="5" t="n"/>
+      <c r="B23" s="5" t="inlineStr">
+        <is>
+          <t>GoldenEye</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Martin Campbell</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -671,7 +935,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B24" s="5" t="n"/>
+      <c r="B24" s="5" t="inlineStr">
+        <is>
+          <t>Casino Royale</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Martin Campbell</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2006</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -679,7 +955,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B25" s="5" t="n"/>
+      <c r="B25" s="5" t="inlineStr">
+        <is>
+          <t>The Omen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Richard Donner</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1976</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -687,7 +975,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B26" s="5" t="n"/>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>Django Unchained</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2012</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -695,7 +995,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B27" s="5" t="n"/>
+      <c r="B27" s="5" t="inlineStr">
+        <is>
+          <t>Pulp Fiction</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1994</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -703,7 +1015,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B28" s="5" t="n"/>
+      <c r="B28" s="5" t="inlineStr">
+        <is>
+          <t>Inglourious Basterds</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -711,7 +1035,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B29" s="5" t="n"/>
+      <c r="B29" s="5" t="inlineStr">
+        <is>
+          <t>Prisoners</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2013</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -719,7 +1055,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B30" s="5" t="n"/>
+      <c r="B30" s="5" t="inlineStr">
+        <is>
+          <t>Blade Runner 2049</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2017</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -727,7 +1075,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B31" s="5" t="n"/>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>Sicario</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2015</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -735,7 +1095,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B32" s="5" t="n"/>
+      <c r="B32" s="5" t="inlineStr">
+        <is>
+          <t>Event Horizon</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Paul W.S. Anderson</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -743,7 +1115,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B33" s="5" t="n"/>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>They Live</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>John Carpenter</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1988</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -751,7 +1135,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B34" s="5" t="n"/>
+      <c r="B34" s="5" t="inlineStr">
+        <is>
+          <t>Hard Target</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -759,7 +1155,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B35" s="5" t="n"/>
+      <c r="B35" s="5" t="inlineStr">
+        <is>
+          <t>Dodgeball: A True Underdog Story</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rawson Marshall Thurber</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -767,7 +1175,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B36" s="5" t="n"/>
+      <c r="B36" s="5" t="inlineStr">
+        <is>
+          <t>Gladiator</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -775,7 +1195,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B37" s="5" t="n"/>
+      <c r="B37" s="5" t="inlineStr">
+        <is>
+          <t>Black Hawk Down</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -783,7 +1215,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B38" s="5" t="n"/>
+      <c r="B38" s="5" t="inlineStr">
+        <is>
+          <t>O Brother, Where Art Thou?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ethan Coen</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -791,7 +1235,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B39" s="5" t="n"/>
+      <c r="B39" s="5" t="inlineStr">
+        <is>
+          <t>Fargo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ethan Coen</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -799,7 +1255,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B40" s="5" t="n"/>
+      <c r="B40" s="5" t="inlineStr">
+        <is>
+          <t>Tombstone</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kevin Jarre</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -807,7 +1275,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B41" s="5" t="n"/>
+      <c r="B41" s="5" t="inlineStr">
+        <is>
+          <t>Per un pugno di dollari</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sergio Leone</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1964</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -815,7 +1295,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B42" s="5" t="n"/>
+      <c r="B42" s="5" t="inlineStr">
+        <is>
+          <t>Per qualche dollaro in più</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sergio Leone</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1965</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -823,7 +1315,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B43" s="5" t="n"/>
+      <c r="B43" s="5" t="inlineStr">
+        <is>
+          <t>Gran Torino</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Clint Eastwood</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2008</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -831,7 +1335,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B44" s="5" t="n"/>
+      <c r="B44" s="5" t="inlineStr">
+        <is>
+          <t>Alien³</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -839,7 +1355,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B45" s="5" t="n"/>
+      <c r="B45" s="5" t="inlineStr">
+        <is>
+          <t>Wedding Crashers</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>David Dobkin</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -847,7 +1375,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B46" s="5" t="n"/>
+      <c r="B46" s="5" t="inlineStr">
+        <is>
+          <t>Napoleon Dynamite</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Jared Hess</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -855,7 +1395,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B47" s="5" t="n"/>
+      <c r="B47" s="5" t="inlineStr">
+        <is>
+          <t>Blade Runner</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -863,7 +1415,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B48" s="5" t="n"/>
+      <c r="B48" s="5" t="inlineStr">
+        <is>
+          <t>Terminator 2: Judgment Day</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>James Cameron</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1991</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -871,7 +1435,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B49" s="5" t="n"/>
+      <c r="B49" s="5" t="inlineStr">
+        <is>
+          <t>The Replacements</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Howard Deutch</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -879,7 +1455,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B50" s="5" t="n"/>
+      <c r="B50" s="5" t="inlineStr">
+        <is>
+          <t>Cop Land</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>James Mangold</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -887,7 +1475,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B51" s="5" t="n"/>
+      <c r="B51" s="5" t="inlineStr">
+        <is>
+          <t>Jurassic Park</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Steven Spielberg</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -895,7 +1495,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B52" s="5" t="n"/>
+      <c r="B52" s="5" t="inlineStr">
+        <is>
+          <t>Transformers</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Michael Bay</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -903,7 +1515,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B53" s="5" t="n"/>
+      <c r="B53" s="5" t="inlineStr">
+        <is>
+          <t>Dirty Harry</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Clint Eastwood</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -911,7 +1535,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B54" s="5" t="n"/>
+      <c r="B54" s="5" t="inlineStr">
+        <is>
+          <t>Serbuan maut 2: Berandal</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Gareth Evans</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2014</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -919,7 +1555,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B55" s="5" t="n"/>
+      <c r="B55" s="5" t="inlineStr">
+        <is>
+          <t>Blade</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Stephen Norrington</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -927,7 +1575,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B56" s="5" t="n"/>
+      <c r="B56" s="5" t="inlineStr">
+        <is>
+          <t>Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Joseph Kosinski</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2022</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -935,7 +1595,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B57" s="5" t="n"/>
+      <c r="B57" s="5" t="inlineStr">
+        <is>
+          <t>Gone in Sixty Seconds</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dominic Sena</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -943,7 +1615,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B58" s="5" t="n"/>
+      <c r="B58" s="5" t="inlineStr">
+        <is>
+          <t>Donnie Darko</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Richard Kelly</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -951,7 +1635,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B59" s="5" t="n"/>
+      <c r="B59" s="5" t="inlineStr">
+        <is>
+          <t>Léon</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Luc Besson</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1994</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -959,7 +1655,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B60" s="5" t="n"/>
+      <c r="B60" s="5" t="inlineStr">
+        <is>
+          <t>Happy Gilmore</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Dennis Dugan</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -967,7 +1675,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B61" s="5" t="n"/>
+      <c r="B61" s="5" t="inlineStr">
+        <is>
+          <t>Mean Girls</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mark Waters</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2004</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -975,7 +1695,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B62" s="5" t="n"/>
+      <c r="B62" s="5" t="inlineStr">
+        <is>
+          <t>Mulholland Dr.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>David Lynch</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -983,7 +1715,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B63" s="5" t="n"/>
+      <c r="B63" s="5" t="inlineStr">
+        <is>
+          <t>Star Wars: Episode VI - Return of the Jedi</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Richard Marquand</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1983</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -991,7 +1735,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B64" s="5" t="n"/>
+      <c r="B64" s="5" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Bob Peterson</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2009</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -999,7 +1755,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B65" s="5" t="n"/>
+      <c r="B65" s="5" t="inlineStr">
+        <is>
+          <t>The Iron Giant</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Brad Bird</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -1007,7 +1775,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B66" s="5" t="n"/>
+      <c r="B66" s="5" t="inlineStr">
+        <is>
+          <t>Toy Story 2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Lee Unkrich</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -1015,7 +1795,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B67" s="5" t="n"/>
+      <c r="B67" s="5" t="inlineStr">
+        <is>
+          <t>Mission: Impossible II</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2000</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -1023,7 +1815,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B68" s="5" t="n"/>
+      <c r="B68" s="5" t="inlineStr">
+        <is>
+          <t>Mission: Impossible - Fallout</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Christopher McQuarrie</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2018</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -1031,7 +1835,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B69" s="5" t="n"/>
+      <c r="B69" s="5" t="inlineStr">
+        <is>
+          <t>Smokey and the Bandit</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Hal Needham</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -1039,7 +1855,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B70" s="5" t="n"/>
+      <c r="B70" s="5" t="inlineStr">
+        <is>
+          <t>The French Connection</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>William Friedkin</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1971</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -1047,7 +1875,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B71" s="5" t="n"/>
+      <c r="B71" s="5" t="inlineStr">
+        <is>
+          <t>Waiting...</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rob McKittrick</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -1055,7 +1895,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B72" s="5" t="n"/>
+      <c r="B72" s="5" t="inlineStr">
+        <is>
+          <t>Broken Arrow</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -1063,7 +1915,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B73" s="5" t="n"/>
+      <c r="B73" s="5" t="inlineStr">
+        <is>
+          <t>Ace Ventura: Pet Detective</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tom Shadyac</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1994</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -1071,7 +1935,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B74" s="5" t="n"/>
+      <c r="B74" s="5" t="inlineStr">
+        <is>
+          <t>Heat</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Michael Mann</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1995</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -1079,7 +1955,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B75" s="5" t="n"/>
+      <c r="B75" s="5" t="inlineStr">
+        <is>
+          <t>Green Zone</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Paul Greengrass</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2010</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -1087,7 +1975,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B76" s="5" t="n"/>
+      <c r="B76" s="5" t="inlineStr">
+        <is>
+          <t>Back to the Future Part II</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Robert Zemeckis</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -1095,7 +1995,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B77" s="5" t="n"/>
+      <c r="B77" s="5" t="inlineStr">
+        <is>
+          <t>Kingdom of Heaven</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2005</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -1103,7 +2015,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B78" s="5" t="n"/>
+      <c r="B78" s="5" t="inlineStr">
+        <is>
+          <t>Lethal Weapon 2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Richard Donner</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1989</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -1111,7 +2035,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B79" s="5" t="n"/>
+      <c r="B79" s="5" t="inlineStr">
+        <is>
+          <t>No Country for Old Men</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Joel Coen</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -1119,7 +2055,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B80" s="5" t="n"/>
+      <c r="B80" s="5" t="inlineStr">
+        <is>
+          <t>Outland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Peter Hyams</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1981</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -1127,7 +2075,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B81" s="5" t="n"/>
+      <c r="B81" s="5" t="inlineStr">
+        <is>
+          <t>True Romance</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tony Scott</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1993</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -1135,7 +2095,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B82" s="5" t="n"/>
+      <c r="B82" s="5" t="inlineStr">
+        <is>
+          <t>Glengarry Glen Ross</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>James Foley</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -1143,7 +2115,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B83" s="5" t="n"/>
+      <c r="B83" s="5" t="inlineStr">
+        <is>
+          <t>Starship Troopers</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Paul Verhoeven</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -1151,7 +2135,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B84" s="5" t="n"/>
+      <c r="B84" s="5" t="inlineStr">
+        <is>
+          <t>A Bridge Too Far</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Richard Attenborough</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1977</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -1159,7 +2155,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B85" s="5" t="n"/>
+      <c r="B85" s="5" t="inlineStr">
+        <is>
+          <t>The Thin Red Line</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Terrence Malick</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -1167,7 +2175,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B86" s="5" t="n"/>
+      <c r="B86" s="5" t="inlineStr">
+        <is>
+          <t>Con Air</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Simon West</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1997</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -1175,7 +2195,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B87" s="5" t="n"/>
+      <c r="B87" s="5" t="inlineStr">
+        <is>
+          <t>Le fabuleux destin d'Amélie Poulain</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jean-Pierre Jeunet</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2001</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -1183,7 +2215,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B88" s="5" t="n"/>
+      <c r="B88" s="5" t="inlineStr">
+        <is>
+          <t>Predator 2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Stephen Hopkins</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -1191,7 +2235,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B89" s="5" t="n"/>
+      <c r="B89" s="5" t="inlineStr">
+        <is>
+          <t>An Officer and a Gentleman</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Taylor Hackford</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -1199,7 +2255,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B90" s="5" t="n"/>
+      <c r="B90" s="5" t="inlineStr">
+        <is>
+          <t>Twister</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Jan de Bont</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1996</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -1207,7 +2275,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B91" s="5" t="n"/>
+      <c r="B91" s="5" t="inlineStr">
+        <is>
+          <t>Rocky II</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sylvester Stallone</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1979</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -1215,7 +2295,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B92" s="5" t="n"/>
+      <c r="B92" s="5" t="inlineStr">
+        <is>
+          <t>There Will Be Blood</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Paul Thomas Anderson</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2007</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -1223,7 +2315,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B93" s="5" t="n"/>
+      <c r="B93" s="5" t="inlineStr">
+        <is>
+          <t>Any Given Sunday</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Oliver Stone</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1999</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -1231,7 +2335,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B94" s="5" t="n"/>
+      <c r="B94" s="5" t="inlineStr">
+        <is>
+          <t>Strangers on a Train</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Alfred Hitchcock</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1951</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -1239,7 +2355,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B95" s="5" t="n"/>
+      <c r="B95" s="5" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Oliver Stone</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1991</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -1247,7 +2375,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B96" s="5" t="n"/>
+      <c r="B96" s="5" t="inlineStr">
+        <is>
+          <t>Lat sau san taam</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1992</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -1255,7 +2395,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B97" s="5" t="n"/>
+      <c r="B97" s="5" t="inlineStr">
+        <is>
+          <t>Total Recall</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Paul Verhoeven</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1990</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
@@ -1263,7 +2415,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B98" s="5" t="n"/>
+      <c r="B98" s="5" t="inlineStr">
+        <is>
+          <t>American History X</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tony Kaye</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1998</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
@@ -1271,7 +2435,19 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B99" s="5" t="n"/>
+      <c r="B99" s="5" t="inlineStr">
+        <is>
+          <t>Halloween III: Season of the Witch</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tommy Lee Wallace</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1982</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">

--- a/films.xlsx
+++ b/films.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Films" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tables" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Films" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -41,12 +43,6 @@
       <name val="Verdana"/>
       <b val="1"/>
       <color rgb="00FF6600"/>
-      <sz val="18"/>
-    </font>
-    <font>
-      <name val="Verdana"/>
-      <b val="1"/>
-      <color rgb="00FFFF99"/>
       <sz val="18"/>
     </font>
     <font>
@@ -89,7 +85,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -97,8 +93,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -464,7 +459,43 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -675,19 +706,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B11" s="5" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Return of the King</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Peter Jackson</t>
-        </is>
-      </c>
-      <c r="D11" t="n">
-        <v>2003</v>
-      </c>
+      <c r="B11" s="5" t="n"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
@@ -695,19 +714,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Fellowship of the Ring</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Peter Jackson</t>
-        </is>
-      </c>
-      <c r="D12" t="n">
-        <v>2001</v>
-      </c>
+      <c r="B12" s="5" t="n"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
@@ -715,19 +722,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B13" s="5" t="inlineStr">
-        <is>
-          <t>Snatch</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Guy Ritchie</t>
-        </is>
-      </c>
-      <c r="D13" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B13" s="5" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
@@ -735,19 +730,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B14" s="5" t="inlineStr">
-        <is>
-          <t>Reign of Fire</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Rob Bowman</t>
-        </is>
-      </c>
-      <c r="D14" t="n">
-        <v>2002</v>
-      </c>
+      <c r="B14" s="5" t="n"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
@@ -755,19 +738,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B15" s="5" t="inlineStr">
-        <is>
-          <t>Equilibrium</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Kurt Wimmer</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>2002</v>
-      </c>
+      <c r="B15" s="5" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
@@ -775,19 +746,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B16" s="5" t="inlineStr">
-        <is>
-          <t>Memento</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Christopher Nolan</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B16" s="5" t="n"/>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
@@ -795,19 +754,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B17" s="5" t="inlineStr">
-        <is>
-          <t>Insomnia</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Christopher Nolan</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>2002</v>
-      </c>
+      <c r="B17" s="5" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
@@ -815,19 +762,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
-        <is>
-          <t>Sorcerer</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>William Friedkin</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>1977</v>
-      </c>
+      <c r="B18" s="5" t="n"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
@@ -835,19 +770,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B19" s="5" t="inlineStr">
-        <is>
-          <t>To Live and Die in L.A.</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>William Friedkin</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>1985</v>
-      </c>
+      <c r="B19" s="5" t="n"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
@@ -855,19 +778,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B20" s="5" t="inlineStr">
-        <is>
-          <t>10 Things I Hate About You</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Gil Junger</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>1999</v>
-      </c>
+      <c r="B20" s="5" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
@@ -875,19 +786,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B21" s="5" t="inlineStr">
-        <is>
-          <t>Die Hard with a Vengeance</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>John McTiernan</t>
-        </is>
-      </c>
-      <c r="D21" t="n">
-        <v>1995</v>
-      </c>
+      <c r="B21" s="5" t="n"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
@@ -895,19 +794,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B22" s="5" t="inlineStr">
-        <is>
-          <t>Se7en</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>David Fincher</t>
-        </is>
-      </c>
-      <c r="D22" t="n">
-        <v>1995</v>
-      </c>
+      <c r="B22" s="5" t="n"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
@@ -915,19 +802,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B23" s="5" t="inlineStr">
-        <is>
-          <t>GoldenEye</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Martin Campbell</t>
-        </is>
-      </c>
-      <c r="D23" t="n">
-        <v>1995</v>
-      </c>
+      <c r="B23" s="5" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
@@ -935,19 +810,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B24" s="5" t="inlineStr">
-        <is>
-          <t>Casino Royale</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Martin Campbell</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>2006</v>
-      </c>
+      <c r="B24" s="5" t="n"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
@@ -955,19 +818,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B25" s="5" t="inlineStr">
-        <is>
-          <t>The Omen</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Richard Donner</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>1976</v>
-      </c>
+      <c r="B25" s="5" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
@@ -975,19 +826,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B26" s="5" t="inlineStr">
-        <is>
-          <t>Django Unchained</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Quentin Tarantino</t>
-        </is>
-      </c>
-      <c r="D26" t="n">
-        <v>2012</v>
-      </c>
+      <c r="B26" s="5" t="n"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
@@ -995,19 +834,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B27" s="5" t="inlineStr">
-        <is>
-          <t>Pulp Fiction</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Quentin Tarantino</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>1994</v>
-      </c>
+      <c r="B27" s="5" t="n"/>
     </row>
     <row r="28">
       <c r="A28" s="4" t="inlineStr">
@@ -1015,19 +842,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B28" s="5" t="inlineStr">
-        <is>
-          <t>Inglourious Basterds</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Quentin Tarantino</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>2009</v>
-      </c>
+      <c r="B28" s="5" t="n"/>
     </row>
     <row r="29">
       <c r="A29" s="4" t="inlineStr">
@@ -1035,19 +850,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B29" s="5" t="inlineStr">
-        <is>
-          <t>Prisoners</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Denis Villeneuve</t>
-        </is>
-      </c>
-      <c r="D29" t="n">
-        <v>2013</v>
-      </c>
+      <c r="B29" s="5" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="4" t="inlineStr">
@@ -1055,19 +858,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B30" s="5" t="inlineStr">
-        <is>
-          <t>Blade Runner 2049</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Denis Villeneuve</t>
-        </is>
-      </c>
-      <c r="D30" t="n">
-        <v>2017</v>
-      </c>
+      <c r="B30" s="5" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="4" t="inlineStr">
@@ -1075,19 +866,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B31" s="5" t="inlineStr">
-        <is>
-          <t>Sicario</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Denis Villeneuve</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>2015</v>
-      </c>
+      <c r="B31" s="5" t="n"/>
     </row>
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
@@ -1095,19 +874,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B32" s="5" t="inlineStr">
-        <is>
-          <t>Event Horizon</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Paul W.S. Anderson</t>
-        </is>
-      </c>
-      <c r="D32" t="n">
-        <v>1997</v>
-      </c>
+      <c r="B32" s="5" t="n"/>
     </row>
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
@@ -1115,19 +882,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B33" s="5" t="inlineStr">
-        <is>
-          <t>They Live</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>John Carpenter</t>
-        </is>
-      </c>
-      <c r="D33" t="n">
-        <v>1988</v>
-      </c>
+      <c r="B33" s="5" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
@@ -1135,19 +890,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B34" s="5" t="inlineStr">
-        <is>
-          <t>Hard Target</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>John Woo</t>
-        </is>
-      </c>
-      <c r="D34" t="n">
-        <v>1993</v>
-      </c>
+      <c r="B34" s="5" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="inlineStr">
@@ -1155,19 +898,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B35" s="5" t="inlineStr">
-        <is>
-          <t>Dodgeball: A True Underdog Story</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Rawson Marshall Thurber</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>2004</v>
-      </c>
+      <c r="B35" s="5" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="inlineStr">
@@ -1175,19 +906,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B36" s="5" t="inlineStr">
-        <is>
-          <t>Gladiator</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Ridley Scott</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B36" s="5" t="n"/>
     </row>
     <row r="37">
       <c r="A37" s="4" t="inlineStr">
@@ -1195,19 +914,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B37" s="5" t="inlineStr">
-        <is>
-          <t>Black Hawk Down</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Ridley Scott</t>
-        </is>
-      </c>
-      <c r="D37" t="n">
-        <v>2001</v>
-      </c>
+      <c r="B37" s="5" t="n"/>
     </row>
     <row r="38">
       <c r="A38" s="4" t="inlineStr">
@@ -1215,19 +922,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B38" s="5" t="inlineStr">
-        <is>
-          <t>O Brother, Where Art Thou?</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Ethan Coen</t>
-        </is>
-      </c>
-      <c r="D38" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B38" s="5" t="n"/>
     </row>
     <row r="39">
       <c r="A39" s="4" t="inlineStr">
@@ -1235,19 +930,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B39" s="5" t="inlineStr">
-        <is>
-          <t>Fargo</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Ethan Coen</t>
-        </is>
-      </c>
-      <c r="D39" t="n">
-        <v>1996</v>
-      </c>
+      <c r="B39" s="5" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="4" t="inlineStr">
@@ -1255,19 +938,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B40" s="5" t="inlineStr">
-        <is>
-          <t>Tombstone</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Kevin Jarre</t>
-        </is>
-      </c>
-      <c r="D40" t="n">
-        <v>1993</v>
-      </c>
+      <c r="B40" s="5" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="inlineStr">
@@ -1275,19 +946,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B41" s="5" t="inlineStr">
-        <is>
-          <t>Per un pugno di dollari</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Sergio Leone</t>
-        </is>
-      </c>
-      <c r="D41" t="n">
-        <v>1964</v>
-      </c>
+      <c r="B41" s="5" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="inlineStr">
@@ -1295,19 +954,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B42" s="5" t="inlineStr">
-        <is>
-          <t>Per qualche dollaro in più</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Sergio Leone</t>
-        </is>
-      </c>
-      <c r="D42" t="n">
-        <v>1965</v>
-      </c>
+      <c r="B42" s="5" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="4" t="inlineStr">
@@ -1315,19 +962,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B43" s="5" t="inlineStr">
-        <is>
-          <t>Gran Torino</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Clint Eastwood</t>
-        </is>
-      </c>
-      <c r="D43" t="n">
-        <v>2008</v>
-      </c>
+      <c r="B43" s="5" t="n"/>
     </row>
     <row r="44">
       <c r="A44" s="4" t="inlineStr">
@@ -1335,19 +970,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B44" s="5" t="inlineStr">
-        <is>
-          <t>Alien³</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>David Fincher</t>
-        </is>
-      </c>
-      <c r="D44" t="n">
-        <v>1992</v>
-      </c>
+      <c r="B44" s="5" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="inlineStr">
@@ -1355,19 +978,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B45" s="5" t="inlineStr">
-        <is>
-          <t>Wedding Crashers</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>David Dobkin</t>
-        </is>
-      </c>
-      <c r="D45" t="n">
-        <v>2005</v>
-      </c>
+      <c r="B45" s="5" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="4" t="inlineStr">
@@ -1375,19 +986,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B46" s="5" t="inlineStr">
-        <is>
-          <t>Napoleon Dynamite</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Jared Hess</t>
-        </is>
-      </c>
-      <c r="D46" t="n">
-        <v>2004</v>
-      </c>
+      <c r="B46" s="5" t="n"/>
     </row>
     <row r="47">
       <c r="A47" s="4" t="inlineStr">
@@ -1395,19 +994,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B47" s="5" t="inlineStr">
-        <is>
-          <t>Blade Runner</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Ridley Scott</t>
-        </is>
-      </c>
-      <c r="D47" t="n">
-        <v>1982</v>
-      </c>
+      <c r="B47" s="5" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="4" t="inlineStr">
@@ -1415,19 +1002,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B48" s="5" t="inlineStr">
-        <is>
-          <t>Terminator 2: Judgment Day</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>James Cameron</t>
-        </is>
-      </c>
-      <c r="D48" t="n">
-        <v>1991</v>
-      </c>
+      <c r="B48" s="5" t="n"/>
     </row>
     <row r="49">
       <c r="A49" s="4" t="inlineStr">
@@ -1435,19 +1010,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B49" s="5" t="inlineStr">
-        <is>
-          <t>The Replacements</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Howard Deutch</t>
-        </is>
-      </c>
-      <c r="D49" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B49" s="5" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="4" t="inlineStr">
@@ -1455,19 +1018,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B50" s="5" t="inlineStr">
-        <is>
-          <t>Cop Land</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>James Mangold</t>
-        </is>
-      </c>
-      <c r="D50" t="n">
-        <v>1997</v>
-      </c>
+      <c r="B50" s="5" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="4" t="inlineStr">
@@ -1475,19 +1026,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B51" s="5" t="inlineStr">
-        <is>
-          <t>Jurassic Park</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Steven Spielberg</t>
-        </is>
-      </c>
-      <c r="D51" t="n">
-        <v>1993</v>
-      </c>
+      <c r="B51" s="5" t="n"/>
     </row>
     <row r="52">
       <c r="A52" s="4" t="inlineStr">
@@ -1495,19 +1034,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B52" s="5" t="inlineStr">
-        <is>
-          <t>Transformers</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Michael Bay</t>
-        </is>
-      </c>
-      <c r="D52" t="n">
-        <v>2007</v>
-      </c>
+      <c r="B52" s="5" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="4" t="inlineStr">
@@ -1515,19 +1042,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B53" s="5" t="inlineStr">
-        <is>
-          <t>Dirty Harry</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Clint Eastwood</t>
-        </is>
-      </c>
-      <c r="D53" t="n">
-        <v>1971</v>
-      </c>
+      <c r="B53" s="5" t="n"/>
     </row>
     <row r="54">
       <c r="A54" s="4" t="inlineStr">
@@ -1535,19 +1050,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B54" s="5" t="inlineStr">
-        <is>
-          <t>Serbuan maut 2: Berandal</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Gareth Evans</t>
-        </is>
-      </c>
-      <c r="D54" t="n">
-        <v>2014</v>
-      </c>
+      <c r="B54" s="5" t="n"/>
     </row>
     <row r="55">
       <c r="A55" s="4" t="inlineStr">
@@ -1555,19 +1058,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B55" s="5" t="inlineStr">
-        <is>
-          <t>Blade</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Stephen Norrington</t>
-        </is>
-      </c>
-      <c r="D55" t="n">
-        <v>1998</v>
-      </c>
+      <c r="B55" s="5" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="4" t="inlineStr">
@@ -1575,19 +1066,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B56" s="5" t="inlineStr">
-        <is>
-          <t>Top Gun: Maverick</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Joseph Kosinski</t>
-        </is>
-      </c>
-      <c r="D56" t="n">
-        <v>2022</v>
-      </c>
+      <c r="B56" s="5" t="n"/>
     </row>
     <row r="57">
       <c r="A57" s="4" t="inlineStr">
@@ -1595,19 +1074,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B57" s="5" t="inlineStr">
-        <is>
-          <t>Gone in Sixty Seconds</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Dominic Sena</t>
-        </is>
-      </c>
-      <c r="D57" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B57" s="5" t="n"/>
     </row>
     <row r="58">
       <c r="A58" s="4" t="inlineStr">
@@ -1615,19 +1082,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B58" s="5" t="inlineStr">
-        <is>
-          <t>Donnie Darko</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Richard Kelly</t>
-        </is>
-      </c>
-      <c r="D58" t="n">
-        <v>2001</v>
-      </c>
+      <c r="B58" s="5" t="n"/>
     </row>
     <row r="59">
       <c r="A59" s="4" t="inlineStr">
@@ -1635,19 +1090,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B59" s="5" t="inlineStr">
-        <is>
-          <t>Léon</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Luc Besson</t>
-        </is>
-      </c>
-      <c r="D59" t="n">
-        <v>1994</v>
-      </c>
+      <c r="B59" s="5" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="4" t="inlineStr">
@@ -1655,19 +1098,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B60" s="5" t="inlineStr">
-        <is>
-          <t>Happy Gilmore</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Dennis Dugan</t>
-        </is>
-      </c>
-      <c r="D60" t="n">
-        <v>1996</v>
-      </c>
+      <c r="B60" s="5" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="4" t="inlineStr">
@@ -1675,19 +1106,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B61" s="5" t="inlineStr">
-        <is>
-          <t>Mean Girls</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Mark Waters</t>
-        </is>
-      </c>
-      <c r="D61" t="n">
-        <v>2004</v>
-      </c>
+      <c r="B61" s="5" t="n"/>
     </row>
     <row r="62">
       <c r="A62" s="4" t="inlineStr">
@@ -1695,19 +1114,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B62" s="5" t="inlineStr">
-        <is>
-          <t>Mulholland Dr.</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>David Lynch</t>
-        </is>
-      </c>
-      <c r="D62" t="n">
-        <v>2001</v>
-      </c>
+      <c r="B62" s="5" t="n"/>
     </row>
     <row r="63">
       <c r="A63" s="4" t="inlineStr">
@@ -1715,19 +1122,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B63" s="5" t="inlineStr">
-        <is>
-          <t>Star Wars: Episode VI - Return of the Jedi</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Richard Marquand</t>
-        </is>
-      </c>
-      <c r="D63" t="n">
-        <v>1983</v>
-      </c>
+      <c r="B63" s="5" t="n"/>
     </row>
     <row r="64">
       <c r="A64" s="4" t="inlineStr">
@@ -1735,19 +1130,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B64" s="5" t="inlineStr">
-        <is>
-          <t>Up</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Bob Peterson</t>
-        </is>
-      </c>
-      <c r="D64" t="n">
-        <v>2009</v>
-      </c>
+      <c r="B64" s="5" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="4" t="inlineStr">
@@ -1755,19 +1138,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B65" s="5" t="inlineStr">
-        <is>
-          <t>The Iron Giant</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Brad Bird</t>
-        </is>
-      </c>
-      <c r="D65" t="n">
-        <v>1999</v>
-      </c>
+      <c r="B65" s="5" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="4" t="inlineStr">
@@ -1775,19 +1146,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B66" s="5" t="inlineStr">
-        <is>
-          <t>Toy Story 2</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Lee Unkrich</t>
-        </is>
-      </c>
-      <c r="D66" t="n">
-        <v>1999</v>
-      </c>
+      <c r="B66" s="5" t="n"/>
     </row>
     <row r="67">
       <c r="A67" s="4" t="inlineStr">
@@ -1795,19 +1154,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B67" s="5" t="inlineStr">
-        <is>
-          <t>Mission: Impossible II</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>John Woo</t>
-        </is>
-      </c>
-      <c r="D67" t="n">
-        <v>2000</v>
-      </c>
+      <c r="B67" s="5" t="n"/>
     </row>
     <row r="68">
       <c r="A68" s="4" t="inlineStr">
@@ -1815,19 +1162,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B68" s="5" t="inlineStr">
-        <is>
-          <t>Mission: Impossible - Fallout</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Christopher McQuarrie</t>
-        </is>
-      </c>
-      <c r="D68" t="n">
-        <v>2018</v>
-      </c>
+      <c r="B68" s="5" t="n"/>
     </row>
     <row r="69">
       <c r="A69" s="4" t="inlineStr">
@@ -1835,19 +1170,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B69" s="5" t="inlineStr">
-        <is>
-          <t>Smokey and the Bandit</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Hal Needham</t>
-        </is>
-      </c>
-      <c r="D69" t="n">
-        <v>1977</v>
-      </c>
+      <c r="B69" s="5" t="n"/>
     </row>
     <row r="70">
       <c r="A70" s="4" t="inlineStr">
@@ -1855,19 +1178,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B70" s="5" t="inlineStr">
-        <is>
-          <t>The French Connection</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>William Friedkin</t>
-        </is>
-      </c>
-      <c r="D70" t="n">
-        <v>1971</v>
-      </c>
+      <c r="B70" s="5" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="4" t="inlineStr">
@@ -1875,19 +1186,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B71" s="5" t="inlineStr">
-        <is>
-          <t>Waiting...</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Rob McKittrick</t>
-        </is>
-      </c>
-      <c r="D71" t="n">
-        <v>2005</v>
-      </c>
+      <c r="B71" s="5" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="4" t="inlineStr">
@@ -1895,19 +1194,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B72" s="5" t="inlineStr">
-        <is>
-          <t>Broken Arrow</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
-        <is>
-          <t>John Woo</t>
-        </is>
-      </c>
-      <c r="D72" t="n">
-        <v>1996</v>
-      </c>
+      <c r="B72" s="5" t="n"/>
     </row>
     <row r="73">
       <c r="A73" s="4" t="inlineStr">
@@ -1915,19 +1202,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B73" s="5" t="inlineStr">
-        <is>
-          <t>Ace Ventura: Pet Detective</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Tom Shadyac</t>
-        </is>
-      </c>
-      <c r="D73" t="n">
-        <v>1994</v>
-      </c>
+      <c r="B73" s="5" t="n"/>
     </row>
     <row r="74">
       <c r="A74" s="4" t="inlineStr">
@@ -1935,19 +1210,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B74" s="5" t="inlineStr">
-        <is>
-          <t>Heat</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Michael Mann</t>
-        </is>
-      </c>
-      <c r="D74" t="n">
-        <v>1995</v>
-      </c>
+      <c r="B74" s="5" t="n"/>
     </row>
     <row r="75">
       <c r="A75" s="4" t="inlineStr">
@@ -1955,19 +1218,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B75" s="5" t="inlineStr">
-        <is>
-          <t>Green Zone</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Paul Greengrass</t>
-        </is>
-      </c>
-      <c r="D75" t="n">
-        <v>2010</v>
-      </c>
+      <c r="B75" s="5" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="4" t="inlineStr">
@@ -1975,19 +1226,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B76" s="5" t="inlineStr">
-        <is>
-          <t>Back to the Future Part II</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Robert Zemeckis</t>
-        </is>
-      </c>
-      <c r="D76" t="n">
-        <v>1989</v>
-      </c>
+      <c r="B76" s="5" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="4" t="inlineStr">
@@ -1995,19 +1234,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B77" s="5" t="inlineStr">
-        <is>
-          <t>Kingdom of Heaven</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Ridley Scott</t>
-        </is>
-      </c>
-      <c r="D77" t="n">
-        <v>2005</v>
-      </c>
+      <c r="B77" s="5" t="n"/>
     </row>
     <row r="78">
       <c r="A78" s="4" t="inlineStr">
@@ -2015,19 +1242,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B78" s="5" t="inlineStr">
-        <is>
-          <t>Lethal Weapon 2</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Richard Donner</t>
-        </is>
-      </c>
-      <c r="D78" t="n">
-        <v>1989</v>
-      </c>
+      <c r="B78" s="5" t="n"/>
     </row>
     <row r="79">
       <c r="A79" s="4" t="inlineStr">
@@ -2035,19 +1250,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B79" s="5" t="inlineStr">
-        <is>
-          <t>No Country for Old Men</t>
-        </is>
-      </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Joel Coen</t>
-        </is>
-      </c>
-      <c r="D79" t="n">
-        <v>2007</v>
-      </c>
+      <c r="B79" s="5" t="n"/>
     </row>
     <row r="80">
       <c r="A80" s="4" t="inlineStr">
@@ -2055,19 +1258,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B80" s="5" t="inlineStr">
-        <is>
-          <t>Outland</t>
-        </is>
-      </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Peter Hyams</t>
-        </is>
-      </c>
-      <c r="D80" t="n">
-        <v>1981</v>
-      </c>
+      <c r="B80" s="5" t="n"/>
     </row>
     <row r="81">
       <c r="A81" s="4" t="inlineStr">
@@ -2075,19 +1266,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B81" s="5" t="inlineStr">
-        <is>
-          <t>True Romance</t>
-        </is>
-      </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Tony Scott</t>
-        </is>
-      </c>
-      <c r="D81" t="n">
-        <v>1993</v>
-      </c>
+      <c r="B81" s="5" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="4" t="inlineStr">
@@ -2095,19 +1274,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B82" s="5" t="inlineStr">
-        <is>
-          <t>Glengarry Glen Ross</t>
-        </is>
-      </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>James Foley</t>
-        </is>
-      </c>
-      <c r="D82" t="n">
-        <v>1992</v>
-      </c>
+      <c r="B82" s="5" t="n"/>
     </row>
     <row r="83">
       <c r="A83" s="4" t="inlineStr">
@@ -2115,19 +1282,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B83" s="5" t="inlineStr">
-        <is>
-          <t>Starship Troopers</t>
-        </is>
-      </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Paul Verhoeven</t>
-        </is>
-      </c>
-      <c r="D83" t="n">
-        <v>1997</v>
-      </c>
+      <c r="B83" s="5" t="n"/>
     </row>
     <row r="84">
       <c r="A84" s="4" t="inlineStr">
@@ -2135,19 +1290,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B84" s="5" t="inlineStr">
-        <is>
-          <t>A Bridge Too Far</t>
-        </is>
-      </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Richard Attenborough</t>
-        </is>
-      </c>
-      <c r="D84" t="n">
-        <v>1977</v>
-      </c>
+      <c r="B84" s="5" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="4" t="inlineStr">
@@ -2155,19 +1298,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B85" s="5" t="inlineStr">
-        <is>
-          <t>The Thin Red Line</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Terrence Malick</t>
-        </is>
-      </c>
-      <c r="D85" t="n">
-        <v>1998</v>
-      </c>
+      <c r="B85" s="5" t="n"/>
     </row>
     <row r="86">
       <c r="A86" s="4" t="inlineStr">
@@ -2175,19 +1306,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B86" s="5" t="inlineStr">
-        <is>
-          <t>Con Air</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Simon West</t>
-        </is>
-      </c>
-      <c r="D86" t="n">
-        <v>1997</v>
-      </c>
+      <c r="B86" s="5" t="n"/>
     </row>
     <row r="87">
       <c r="A87" s="4" t="inlineStr">
@@ -2195,19 +1314,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B87" s="5" t="inlineStr">
-        <is>
-          <t>Le fabuleux destin d'Amélie Poulain</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Jean-Pierre Jeunet</t>
-        </is>
-      </c>
-      <c r="D87" t="n">
-        <v>2001</v>
-      </c>
+      <c r="B87" s="5" t="n"/>
     </row>
     <row r="88">
       <c r="A88" s="4" t="inlineStr">
@@ -2215,19 +1322,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B88" s="5" t="inlineStr">
-        <is>
-          <t>Predator 2</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Stephen Hopkins</t>
-        </is>
-      </c>
-      <c r="D88" t="n">
-        <v>1990</v>
-      </c>
+      <c r="B88" s="5" t="n"/>
     </row>
     <row r="89">
       <c r="A89" s="4" t="inlineStr">
@@ -2235,19 +1330,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B89" s="5" t="inlineStr">
-        <is>
-          <t>An Officer and a Gentleman</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Taylor Hackford</t>
-        </is>
-      </c>
-      <c r="D89" t="n">
-        <v>1982</v>
-      </c>
+      <c r="B89" s="5" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="4" t="inlineStr">
@@ -2255,19 +1338,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B90" s="5" t="inlineStr">
-        <is>
-          <t>Twister</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Jan de Bont</t>
-        </is>
-      </c>
-      <c r="D90" t="n">
-        <v>1996</v>
-      </c>
+      <c r="B90" s="5" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="4" t="inlineStr">
@@ -2275,19 +1346,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B91" s="5" t="inlineStr">
-        <is>
-          <t>Rocky II</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Sylvester Stallone</t>
-        </is>
-      </c>
-      <c r="D91" t="n">
-        <v>1979</v>
-      </c>
+      <c r="B91" s="5" t="n"/>
     </row>
     <row r="92">
       <c r="A92" s="4" t="inlineStr">
@@ -2295,19 +1354,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B92" s="5" t="inlineStr">
-        <is>
-          <t>There Will Be Blood</t>
-        </is>
-      </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Paul Thomas Anderson</t>
-        </is>
-      </c>
-      <c r="D92" t="n">
-        <v>2007</v>
-      </c>
+      <c r="B92" s="5" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="4" t="inlineStr">
@@ -2315,19 +1362,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B93" s="5" t="inlineStr">
-        <is>
-          <t>Any Given Sunday</t>
-        </is>
-      </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Oliver Stone</t>
-        </is>
-      </c>
-      <c r="D93" t="n">
-        <v>1999</v>
-      </c>
+      <c r="B93" s="5" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="4" t="inlineStr">
@@ -2335,19 +1370,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B94" s="5" t="inlineStr">
-        <is>
-          <t>Strangers on a Train</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Alfred Hitchcock</t>
-        </is>
-      </c>
-      <c r="D94" t="n">
-        <v>1951</v>
-      </c>
+      <c r="B94" s="5" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="4" t="inlineStr">
@@ -2355,19 +1378,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B95" s="5" t="inlineStr">
-        <is>
-          <t>JFK</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Oliver Stone</t>
-        </is>
-      </c>
-      <c r="D95" t="n">
-        <v>1991</v>
-      </c>
+      <c r="B95" s="5" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="4" t="inlineStr">
@@ -2375,19 +1386,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B96" s="5" t="inlineStr">
-        <is>
-          <t>Lat sau san taam</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>John Woo</t>
-        </is>
-      </c>
-      <c r="D96" t="n">
-        <v>1992</v>
-      </c>
+      <c r="B96" s="5" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="4" t="inlineStr">
@@ -2395,19 +1394,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B97" s="5" t="inlineStr">
-        <is>
-          <t>Total Recall</t>
-        </is>
-      </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Paul Verhoeven</t>
-        </is>
-      </c>
-      <c r="D97" t="n">
-        <v>1990</v>
-      </c>
+      <c r="B97" s="5" t="n"/>
     </row>
     <row r="98">
       <c r="A98" s="4" t="inlineStr">
@@ -2415,19 +1402,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B98" s="5" t="inlineStr">
-        <is>
-          <t>American History X</t>
-        </is>
-      </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Tony Kaye</t>
-        </is>
-      </c>
-      <c r="D98" t="n">
-        <v>1998</v>
-      </c>
+      <c r="B98" s="5" t="n"/>
     </row>
     <row r="99">
       <c r="A99" s="4" t="inlineStr">
@@ -2435,19 +1410,7 @@
           <t>*</t>
         </is>
       </c>
-      <c r="B99" s="5" t="inlineStr">
-        <is>
-          <t>Halloween III: Season of the Witch</t>
-        </is>
-      </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Tommy Lee Wallace</t>
-        </is>
-      </c>
-      <c r="D99" t="n">
-        <v>1982</v>
-      </c>
+      <c r="B99" s="5" t="n"/>
     </row>
     <row r="100">
       <c r="A100" s="4" t="inlineStr">
@@ -2456,20 +1419,6 @@
         </is>
       </c>
       <c r="B100" s="5" t="n"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="6" t="inlineStr">
-        <is>
-          <t>Year with most Films</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" s="6" t="inlineStr">
-        <is>
-          <t>Most Films by Director</t>
-        </is>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/films.xlsx
+++ b/films.xlsx
@@ -19,7 +19,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -46,11 +46,17 @@
       <sz val="18"/>
     </font>
     <font>
+      <name val="Verdana"/>
+      <b val="1"/>
+      <color rgb="000066CC"/>
+      <sz val="18"/>
+    </font>
+    <font>
       <i val="1"/>
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill/>
     </fill>
@@ -72,6 +78,16 @@
         <fgColor rgb="00003366"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00800000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFF00"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -85,15 +101,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -495,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -519,14 +537,24 @@
           <t>Year</t>
         </is>
       </c>
+      <c r="E1" s="4" t="inlineStr">
+        <is>
+          <t>Box Office Global</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>Genre</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B2" s="5" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B2" s="7" t="inlineStr">
         <is>
           <t>Alien</t>
         </is>
@@ -539,14 +567,24 @@
       <c r="D2" t="n">
         <v>1979</v>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>$203,630,630</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B3" s="5" t="inlineStr">
+      <c r="A3" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B3" s="7" t="inlineStr">
         <is>
           <t>Predator</t>
         </is>
@@ -559,14 +597,24 @@
       <c r="D3" t="n">
         <v>1987</v>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>$38,532,010</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B4" s="5" t="inlineStr">
+      <c r="A4" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B4" s="7" t="inlineStr">
         <is>
           <t>Inception</t>
         </is>
@@ -579,846 +627,784 @@
       <c r="D4" t="n">
         <v>2010</v>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>$825,532,764, 06 Jan 2011</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B5" s="5" t="inlineStr">
-        <is>
-          <t>Aliens</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>James Cameron</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>1986</v>
-      </c>
+      <c r="A5" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B5" s="7" t="n"/>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B6" s="5" t="inlineStr">
-        <is>
-          <t>The Lord of the Rings: The Two Towers</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Peter Jackson</t>
-        </is>
-      </c>
-      <c r="D6" t="n">
-        <v>2002</v>
-      </c>
+      <c r="A6" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B6" s="7" t="n"/>
     </row>
     <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B7" s="5" t="inlineStr">
-        <is>
-          <t>Collateral</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Michael Mann</t>
-        </is>
-      </c>
-      <c r="D7" t="n">
-        <v>2004</v>
-      </c>
+      <c r="A7" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B7" s="7" t="n"/>
     </row>
     <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B8" s="5" t="inlineStr">
-        <is>
-          <t>Batman Begins</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Christopher Nolan</t>
-        </is>
-      </c>
-      <c r="D8" t="n">
-        <v>2005</v>
-      </c>
+      <c r="A8" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B8" s="7" t="n"/>
     </row>
     <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B9" s="5" t="inlineStr">
-        <is>
-          <t>The Dark Knight</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Christopher Nolan</t>
-        </is>
-      </c>
-      <c r="D9" t="n">
-        <v>2008</v>
-      </c>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B9" s="7" t="n"/>
     </row>
     <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B10" s="5" t="inlineStr">
-        <is>
-          <t>The Blues Brothers</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>John Landis</t>
-        </is>
-      </c>
-      <c r="D10" t="n">
-        <v>1980</v>
-      </c>
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B10" s="7" t="n"/>
     </row>
     <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B11" s="5" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B11" s="7" t="n"/>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B12" s="5" t="n"/>
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="n"/>
     </row>
     <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B13" s="5" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="n"/>
     </row>
     <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B14" s="5" t="n"/>
+      <c r="A14" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B14" s="7" t="n"/>
     </row>
     <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B15" s="5" t="n"/>
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="n"/>
     </row>
     <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B16" s="5" t="n"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B16" s="7" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B17" s="5" t="n"/>
+      <c r="A17" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B17" s="7" t="n"/>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B18" s="5" t="n"/>
+      <c r="A18" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B18" s="7" t="n"/>
     </row>
     <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B19" s="5" t="n"/>
+      <c r="A19" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B19" s="7" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B20" s="5" t="n"/>
+      <c r="A20" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B20" s="7" t="n"/>
     </row>
     <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B21" s="5" t="n"/>
+      <c r="A21" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B21" s="7" t="n"/>
     </row>
     <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B22" s="5" t="n"/>
+      <c r="A22" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B22" s="7" t="n"/>
     </row>
     <row r="23">
-      <c r="A23" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B23" s="5" t="n"/>
+      <c r="A23" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B23" s="7" t="n"/>
     </row>
     <row r="24">
-      <c r="A24" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B24" s="5" t="n"/>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B24" s="7" t="n"/>
     </row>
     <row r="25">
-      <c r="A25" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B25" s="5" t="n"/>
+      <c r="A25" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n"/>
     </row>
     <row r="26">
-      <c r="A26" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B26" s="5" t="n"/>
+      <c r="A26" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n"/>
     </row>
     <row r="27">
-      <c r="A27" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B27" s="5" t="n"/>
+      <c r="A27" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B27" s="7" t="n"/>
     </row>
     <row r="28">
-      <c r="A28" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B28" s="5" t="n"/>
+      <c r="A28" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B28" s="7" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B29" s="5" t="n"/>
+      <c r="A29" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B29" s="7" t="n"/>
     </row>
     <row r="30">
-      <c r="A30" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B30" s="5" t="n"/>
+      <c r="A30" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B30" s="7" t="n"/>
     </row>
     <row r="31">
-      <c r="A31" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B31" s="5" t="n"/>
+      <c r="A31" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B31" s="7" t="n"/>
     </row>
     <row r="32">
-      <c r="A32" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B32" s="5" t="n"/>
+      <c r="A32" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B32" s="7" t="n"/>
     </row>
     <row r="33">
-      <c r="A33" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B33" s="5" t="n"/>
+      <c r="A33" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B33" s="7" t="n"/>
     </row>
     <row r="34">
-      <c r="A34" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B34" s="5" t="n"/>
+      <c r="A34" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B34" s="7" t="n"/>
     </row>
     <row r="35">
-      <c r="A35" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B35" s="5" t="n"/>
+      <c r="A35" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B35" s="7" t="n"/>
     </row>
     <row r="36">
-      <c r="A36" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B36" s="5" t="n"/>
+      <c r="A36" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B36" s="7" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B37" s="5" t="n"/>
+      <c r="A37" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B37" s="7" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B38" s="5" t="n"/>
+      <c r="A38" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B38" s="7" t="n"/>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B39" s="5" t="n"/>
+      <c r="A39" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B39" s="7" t="n"/>
     </row>
     <row r="40">
-      <c r="A40" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B40" s="5" t="n"/>
+      <c r="A40" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B40" s="7" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B41" s="5" t="n"/>
+      <c r="A41" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B41" s="7" t="n"/>
     </row>
     <row r="42">
-      <c r="A42" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B42" s="5" t="n"/>
+      <c r="A42" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B42" s="7" t="n"/>
     </row>
     <row r="43">
-      <c r="A43" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B43" s="5" t="n"/>
+      <c r="A43" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B43" s="7" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B44" s="5" t="n"/>
+      <c r="A44" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B44" s="7" t="n"/>
     </row>
     <row r="45">
-      <c r="A45" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B45" s="5" t="n"/>
+      <c r="A45" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B45" s="7" t="n"/>
     </row>
     <row r="46">
-      <c r="A46" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B46" s="5" t="n"/>
+      <c r="A46" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B46" s="7" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B47" s="5" t="n"/>
+      <c r="A47" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B47" s="7" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B48" s="5" t="n"/>
+      <c r="A48" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B48" s="7" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B49" s="5" t="n"/>
+      <c r="A49" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B49" s="7" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B50" s="5" t="n"/>
+      <c r="A50" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B50" s="7" t="n"/>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B51" s="5" t="n"/>
+      <c r="A51" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B51" s="7" t="n"/>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B52" s="5" t="n"/>
+      <c r="A52" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B52" s="7" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B53" s="5" t="n"/>
+      <c r="A53" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B53" s="7" t="n"/>
     </row>
     <row r="54">
-      <c r="A54" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B54" s="5" t="n"/>
+      <c r="A54" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B54" s="7" t="n"/>
     </row>
     <row r="55">
-      <c r="A55" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B55" s="5" t="n"/>
+      <c r="A55" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B55" s="7" t="n"/>
     </row>
     <row r="56">
-      <c r="A56" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B56" s="5" t="n"/>
+      <c r="A56" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B56" s="7" t="n"/>
     </row>
     <row r="57">
-      <c r="A57" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B57" s="5" t="n"/>
+      <c r="A57" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B57" s="7" t="n"/>
     </row>
     <row r="58">
-      <c r="A58" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B58" s="5" t="n"/>
+      <c r="A58" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B58" s="7" t="n"/>
     </row>
     <row r="59">
-      <c r="A59" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B59" s="5" t="n"/>
+      <c r="A59" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B59" s="7" t="n"/>
     </row>
     <row r="60">
-      <c r="A60" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B60" s="5" t="n"/>
+      <c r="A60" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B60" s="7" t="n"/>
     </row>
     <row r="61">
-      <c r="A61" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B61" s="5" t="n"/>
+      <c r="A61" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B61" s="7" t="n"/>
     </row>
     <row r="62">
-      <c r="A62" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B62" s="5" t="n"/>
+      <c r="A62" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B62" s="7" t="n"/>
     </row>
     <row r="63">
-      <c r="A63" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B63" s="5" t="n"/>
+      <c r="A63" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B63" s="7" t="n"/>
     </row>
     <row r="64">
-      <c r="A64" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B64" s="5" t="n"/>
+      <c r="A64" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B64" s="7" t="n"/>
     </row>
     <row r="65">
-      <c r="A65" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B65" s="5" t="n"/>
+      <c r="A65" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B65" s="7" t="n"/>
     </row>
     <row r="66">
-      <c r="A66" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B66" s="5" t="n"/>
+      <c r="A66" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B66" s="7" t="n"/>
     </row>
     <row r="67">
-      <c r="A67" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B67" s="5" t="n"/>
+      <c r="A67" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B67" s="7" t="n"/>
     </row>
     <row r="68">
-      <c r="A68" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B68" s="5" t="n"/>
+      <c r="A68" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B68" s="7" t="n"/>
     </row>
     <row r="69">
-      <c r="A69" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B69" s="5" t="n"/>
+      <c r="A69" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B69" s="7" t="n"/>
     </row>
     <row r="70">
-      <c r="A70" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B70" s="5" t="n"/>
+      <c r="A70" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B70" s="7" t="n"/>
     </row>
     <row r="71">
-      <c r="A71" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B71" s="5" t="n"/>
+      <c r="A71" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B71" s="7" t="n"/>
     </row>
     <row r="72">
-      <c r="A72" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B72" s="5" t="n"/>
+      <c r="A72" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B72" s="7" t="n"/>
     </row>
     <row r="73">
-      <c r="A73" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B73" s="5" t="n"/>
+      <c r="A73" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B73" s="7" t="n"/>
     </row>
     <row r="74">
-      <c r="A74" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B74" s="5" t="n"/>
+      <c r="A74" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B74" s="7" t="n"/>
     </row>
     <row r="75">
-      <c r="A75" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B75" s="5" t="n"/>
+      <c r="A75" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B75" s="7" t="n"/>
     </row>
     <row r="76">
-      <c r="A76" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B76" s="5" t="n"/>
+      <c r="A76" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B76" s="7" t="n"/>
     </row>
     <row r="77">
-      <c r="A77" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B77" s="5" t="n"/>
+      <c r="A77" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B77" s="7" t="n"/>
     </row>
     <row r="78">
-      <c r="A78" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B78" s="5" t="n"/>
+      <c r="A78" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B78" s="7" t="n"/>
     </row>
     <row r="79">
-      <c r="A79" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B79" s="5" t="n"/>
+      <c r="A79" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B79" s="7" t="n"/>
     </row>
     <row r="80">
-      <c r="A80" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B80" s="5" t="n"/>
+      <c r="A80" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B80" s="7" t="n"/>
     </row>
     <row r="81">
-      <c r="A81" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B81" s="5" t="n"/>
+      <c r="A81" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B81" s="7" t="n"/>
     </row>
     <row r="82">
-      <c r="A82" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B82" s="5" t="n"/>
+      <c r="A82" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B82" s="7" t="n"/>
     </row>
     <row r="83">
-      <c r="A83" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B83" s="5" t="n"/>
+      <c r="A83" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B83" s="7" t="n"/>
     </row>
     <row r="84">
-      <c r="A84" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B84" s="5" t="n"/>
+      <c r="A84" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B84" s="7" t="n"/>
     </row>
     <row r="85">
-      <c r="A85" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B85" s="5" t="n"/>
+      <c r="A85" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B85" s="7" t="n"/>
     </row>
     <row r="86">
-      <c r="A86" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B86" s="5" t="n"/>
+      <c r="A86" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B86" s="7" t="n"/>
     </row>
     <row r="87">
-      <c r="A87" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B87" s="5" t="n"/>
+      <c r="A87" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B87" s="7" t="n"/>
     </row>
     <row r="88">
-      <c r="A88" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B88" s="5" t="n"/>
+      <c r="A88" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B88" s="7" t="n"/>
     </row>
     <row r="89">
-      <c r="A89" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B89" s="5" t="n"/>
+      <c r="A89" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B89" s="7" t="n"/>
     </row>
     <row r="90">
-      <c r="A90" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B90" s="5" t="n"/>
+      <c r="A90" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B90" s="7" t="n"/>
     </row>
     <row r="91">
-      <c r="A91" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B91" s="5" t="n"/>
+      <c r="A91" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B91" s="7" t="n"/>
     </row>
     <row r="92">
-      <c r="A92" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B92" s="5" t="n"/>
+      <c r="A92" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B92" s="7" t="n"/>
     </row>
     <row r="93">
-      <c r="A93" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B93" s="5" t="n"/>
+      <c r="A93" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B93" s="7" t="n"/>
     </row>
     <row r="94">
-      <c r="A94" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B94" s="5" t="n"/>
+      <c r="A94" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B94" s="7" t="n"/>
     </row>
     <row r="95">
-      <c r="A95" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B95" s="5" t="n"/>
+      <c r="A95" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B95" s="7" t="n"/>
     </row>
     <row r="96">
-      <c r="A96" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B96" s="5" t="n"/>
+      <c r="A96" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B96" s="7" t="n"/>
     </row>
     <row r="97">
-      <c r="A97" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B97" s="5" t="n"/>
+      <c r="A97" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B97" s="7" t="n"/>
     </row>
     <row r="98">
-      <c r="A98" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B98" s="5" t="n"/>
+      <c r="A98" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B98" s="7" t="n"/>
     </row>
     <row r="99">
-      <c r="A99" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B99" s="5" t="n"/>
+      <c r="A99" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B99" s="7" t="n"/>
     </row>
     <row r="100">
-      <c r="A100" s="4" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B100" s="5" t="n"/>
+      <c r="A100" s="6" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B100" s="7" t="n"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/films.xlsx
+++ b/films.xlsx
@@ -7,9 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tables" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Films" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Films" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -495,24 +494,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
   <dimension ref="A1:F100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -567,11 +548,6 @@
       <c r="D2" t="n">
         <v>1979</v>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>$203,630,630</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
@@ -597,11 +573,6 @@
       <c r="D3" t="n">
         <v>1987</v>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>$38,532,010</t>
-        </is>
-      </c>
       <c r="F3" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
@@ -626,11 +597,6 @@
       </c>
       <c r="D4" t="n">
         <v>2010</v>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>$825,532,764, 06 Jan 2011</t>
-        </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>

--- a/films.xlsx
+++ b/films.xlsx
@@ -55,7 +55,7 @@
       <sz val="16"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill/>
     </fill>
@@ -79,11 +79,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00800000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="00FFFF00"/>
       </patternFill>
     </fill>
@@ -100,13 +95,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -494,7 +488,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F100"/>
+  <dimension ref="A1:E100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -520,22 +514,17 @@
       </c>
       <c r="E1" s="4" t="inlineStr">
         <is>
-          <t>Box Office Global</t>
-        </is>
-      </c>
-      <c r="F1" s="5" t="inlineStr">
-        <is>
           <t>Genre</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B2" s="7" t="inlineStr">
+      <c r="A2" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B2" s="6" t="inlineStr">
         <is>
           <t>Alien</t>
         </is>
@@ -548,19 +537,19 @@
       <c r="D2" t="n">
         <v>1979</v>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B3" s="7" t="inlineStr">
+      <c r="A3" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B3" s="6" t="inlineStr">
         <is>
           <t>Predator</t>
         </is>
@@ -573,19 +562,19 @@
       <c r="D3" t="n">
         <v>1987</v>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>Sci-Fi</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B4" s="7" t="inlineStr">
+      <c r="A4" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B4" s="6" t="inlineStr">
         <is>
           <t>Inception</t>
         </is>
@@ -598,779 +587,2411 @@
       <c r="D4" t="n">
         <v>2010</v>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>Thriller</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B5" s="7" t="n"/>
+      <c r="A5" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B5" s="6" t="inlineStr">
+        <is>
+          <t>Aliens</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>James Cameron</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1986</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="6">
-      <c r="A6" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B6" s="7" t="n"/>
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Two Towers</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
     </row>
     <row r="7">
-      <c r="A7" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B7" s="7" t="n"/>
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B7" s="6" t="inlineStr">
+        <is>
+          <t>Collateral</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Michael Mann</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B8" s="7" t="n"/>
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="inlineStr">
+        <is>
+          <t>Batman Begins</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B9" s="7" t="n"/>
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B9" s="6" t="inlineStr">
+        <is>
+          <t>The Dark Knight</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="10">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="n"/>
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B10" s="6" t="inlineStr">
+        <is>
+          <t>The Blues Brothers</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>John Landis</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>1980</v>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Musical</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B11" s="7" t="n"/>
+      <c r="A11" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B11" s="6" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Return of the King</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>2003</v>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
     </row>
     <row r="12">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="n"/>
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B12" s="6" t="inlineStr">
+        <is>
+          <t>The Lord of the Rings: The Fellowship of the Ring</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Peter Jackson</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B13" s="7" t="n"/>
+      <c r="A13" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B13" s="6" t="inlineStr">
+        <is>
+          <t>Snatch</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Guy Ritchie</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Crime</t>
+        </is>
+      </c>
     </row>
     <row r="14">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="n"/>
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B14" s="6" t="inlineStr">
+        <is>
+          <t>Reign of Fire</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Rob Bowman</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="n"/>
+      <c r="A15" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B15" s="6" t="inlineStr">
+        <is>
+          <t>Equilibrium</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Kurt Wimmer</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="16">
-      <c r="A16" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B16" s="7" t="n"/>
+      <c r="A16" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B16" s="6" t="inlineStr">
+        <is>
+          <t>Memento</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="17">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B17" s="7" t="n"/>
+      <c r="A17" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B17" s="6" t="inlineStr">
+        <is>
+          <t>Insomnia</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Christopher Nolan</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>2002</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="18">
-      <c r="A18" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B18" s="7" t="n"/>
+      <c r="A18" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B18" s="6" t="inlineStr">
+        <is>
+          <t>Sorcerer</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>William Friedkin</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="19">
-      <c r="A19" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B19" s="7" t="n"/>
+      <c r="A19" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B19" s="6" t="inlineStr">
+        <is>
+          <t>To Live and Die in L.A.</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>William Friedkin</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>1985</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="A20" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B20" s="7" t="n"/>
+      <c r="A20" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B20" s="6" t="inlineStr">
+        <is>
+          <t>10 Things I Hate About You</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Gil Junger</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
     </row>
     <row r="21">
-      <c r="A21" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B21" s="7" t="n"/>
+      <c r="A21" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B21" s="6" t="inlineStr">
+        <is>
+          <t>Die Hard with a Vengeance</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>John McTiernan</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B22" s="7" t="n"/>
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B22" s="6" t="inlineStr">
+        <is>
+          <t>Se7en</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B23" s="7" t="n"/>
+      <c r="A23" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B23" s="6" t="inlineStr">
+        <is>
+          <t>GoldenEye</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Martin Campbell</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B24" s="7" t="n"/>
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B24" s="6" t="inlineStr">
+        <is>
+          <t>Casino Royale</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Martin Campbell</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>2006</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B25" s="7" t="n"/>
+      <c r="A25" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B25" s="6" t="inlineStr">
+        <is>
+          <t>The Omen</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Richard Donner</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>1976</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Mystery</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B26" s="7" t="n"/>
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B26" s="6" t="inlineStr">
+        <is>
+          <t>Django Unchained</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>2012</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
     </row>
     <row r="27">
-      <c r="A27" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B27" s="7" t="n"/>
+      <c r="A27" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B27" s="6" t="inlineStr">
+        <is>
+          <t>Pulp Fiction</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B28" s="7" t="n"/>
+      <c r="A28" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B28" s="6" t="inlineStr">
+        <is>
+          <t>Inglourious Basterds</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Quentin Tarantino</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B29" s="7" t="n"/>
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B29" s="6" t="inlineStr">
+        <is>
+          <t>Prisoners</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>2013</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B30" s="7" t="n"/>
+      <c r="A30" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B30" s="6" t="inlineStr">
+        <is>
+          <t>Blade Runner 2049</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>2017</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B31" s="7" t="n"/>
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B31" s="6" t="inlineStr">
+        <is>
+          <t>Sicario</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Denis Villeneuve</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>2015</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B32" s="7" t="n"/>
+      <c r="A32" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B32" s="6" t="inlineStr">
+        <is>
+          <t>Event Horizon</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Paul W.S. Anderson</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B33" s="7" t="n"/>
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B33" s="6" t="inlineStr">
+        <is>
+          <t>They Live</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>John Carpenter</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>1988</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B34" s="7" t="n"/>
+      <c r="A34" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B34" s="6" t="inlineStr">
+        <is>
+          <t>Hard Target</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B35" s="7" t="n"/>
+      <c r="A35" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B35" s="6" t="inlineStr">
+        <is>
+          <t>Dodgeball: A True Underdog Story</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Rawson Marshall Thurber</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B36" s="7" t="n"/>
+      <c r="A36" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B36" s="6" t="inlineStr">
+        <is>
+          <t>Gladiator</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n"/>
+      <c r="A37" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B37" s="6" t="inlineStr">
+        <is>
+          <t>Black Hawk Down</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n"/>
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B38" s="6" t="inlineStr">
+        <is>
+          <t>O Brother, Where Art Thou?</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ethan Coen</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Music</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B39" s="7" t="n"/>
+      <c r="A39" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B39" s="6" t="inlineStr">
+        <is>
+          <t>Fargo</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Ethan Coen</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B40" s="7" t="n"/>
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B40" s="6" t="inlineStr">
+        <is>
+          <t>Tombstone</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Kevin Jarre</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B41" s="7" t="n"/>
+      <c r="A41" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B41" s="6" t="inlineStr">
+        <is>
+          <t>Per un pugno di dollari</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Sergio Leone</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>1964</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B42" s="7" t="n"/>
+      <c r="A42" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B42" s="6" t="inlineStr">
+        <is>
+          <t>Per qualche dollaro in più</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Sergio Leone</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>1965</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B43" s="7" t="n"/>
+      <c r="A43" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B43" s="6" t="inlineStr">
+        <is>
+          <t>Gran Torino</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Clint Eastwood</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>2008</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B44" s="7" t="n"/>
+      <c r="A44" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B44" s="6" t="inlineStr">
+        <is>
+          <t>Alien³</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>David Fincher</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B45" s="7" t="n"/>
+      <c r="A45" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B45" s="6" t="inlineStr">
+        <is>
+          <t>Wedding Crashers</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>David Dobkin</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B46" s="7" t="n"/>
+      <c r="A46" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B46" s="6" t="inlineStr">
+        <is>
+          <t>Napoleon Dynamite</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Jared Hess</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B47" s="7" t="n"/>
+      <c r="A47" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B47" s="6" t="inlineStr">
+        <is>
+          <t>Blade Runner</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B48" s="7" t="n"/>
+      <c r="A48" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B48" s="6" t="inlineStr">
+        <is>
+          <t>Terminator 2: Judgment Day</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>James Cameron</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B49" s="7" t="n"/>
+      <c r="A49" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B49" s="6" t="inlineStr">
+        <is>
+          <t>The Replacements</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Howard Deutch</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B50" s="7" t="n"/>
+      <c r="A50" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B50" s="6" t="inlineStr">
+        <is>
+          <t>Cop Land</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>James Mangold</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B51" s="7" t="n"/>
+      <c r="A51" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B51" s="6" t="inlineStr">
+        <is>
+          <t>Jurassic Park</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Steven Spielberg</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B52" s="7" t="n"/>
+      <c r="A52" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B52" s="6" t="inlineStr">
+        <is>
+          <t>Transformers</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Michael Bay</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B53" s="7" t="n"/>
+      <c r="A53" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B53" s="6" t="inlineStr">
+        <is>
+          <t>Dirty Harry</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Clint Eastwood</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B54" s="7" t="n"/>
+      <c r="A54" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B54" s="6" t="inlineStr">
+        <is>
+          <t>Serbuan maut 2: Berandal</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Gareth Evans</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>2014</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B55" s="7" t="n"/>
+      <c r="A55" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B55" s="6" t="inlineStr">
+        <is>
+          <t>Blade</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Stephen Norrington</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B56" s="7" t="n"/>
+      <c r="A56" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B56" s="6" t="inlineStr">
+        <is>
+          <t>Top Gun: Maverick</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Joseph Kosinski</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B57" s="7" t="n"/>
+      <c r="A57" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B57" s="6" t="inlineStr">
+        <is>
+          <t>Gone in Sixty Seconds</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Dominic Sena</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B58" s="7" t="n"/>
+      <c r="A58" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B58" s="6" t="inlineStr">
+        <is>
+          <t>Donnie Darko</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Richard Kelly</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B59" s="7" t="n"/>
+      <c r="A59" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B59" s="6" t="inlineStr">
+        <is>
+          <t>Léon</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Luc Besson</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B60" s="7" t="n"/>
+      <c r="A60" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B60" s="6" t="inlineStr">
+        <is>
+          <t>Happy Gilmore</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Dennis Dugan</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B61" s="7" t="n"/>
+      <c r="A61" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B61" s="6" t="inlineStr">
+        <is>
+          <t>Mean Girls</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Mark Waters</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>2004</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B62" s="7" t="n"/>
+      <c r="A62" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B62" s="6" t="inlineStr">
+        <is>
+          <t>Mulholland Dr.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>David Lynch</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B63" s="7" t="n"/>
+      <c r="A63" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B63" s="6" t="inlineStr">
+        <is>
+          <t>Star Wars: Episode VI - Return of the Jedi</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Richard Marquand</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>1983</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B64" s="7" t="n"/>
+      <c r="A64" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B64" s="6" t="inlineStr">
+        <is>
+          <t>Up</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Bob Peterson</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2009</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Family</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B65" s="7" t="n"/>
+      <c r="A65" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B65" s="6" t="inlineStr">
+        <is>
+          <t>The Iron Giant</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Brad Bird</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B66" s="7" t="n"/>
+      <c r="A66" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B66" s="6" t="inlineStr">
+        <is>
+          <t>Toy Story 2</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Lee Unkrich</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>Fantasy</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B67" s="7" t="n"/>
+      <c r="A67" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B67" s="6" t="inlineStr">
+        <is>
+          <t>Mission: Impossible II</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>2000</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B68" s="7" t="n"/>
+      <c r="A68" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B68" s="6" t="inlineStr">
+        <is>
+          <t>Mission: Impossible - Fallout</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Christopher McQuarrie</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>2018</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B69" s="7" t="n"/>
+      <c r="A69" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B69" s="6" t="inlineStr">
+        <is>
+          <t>Smokey and the Bandit</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Hal Needham</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B70" s="7" t="n"/>
+      <c r="A70" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B70" s="6" t="inlineStr">
+        <is>
+          <t>The French Connection</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>William Friedkin</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>1971</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B71" s="7" t="n"/>
+      <c r="A71" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B71" s="6" t="inlineStr">
+        <is>
+          <t>Waiting...</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Rob McKittrick</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B72" s="7" t="n"/>
+      <c r="A72" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B72" s="6" t="inlineStr">
+        <is>
+          <t>Broken Arrow</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D72" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="73">
-      <c r="A73" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B73" s="7" t="n"/>
+      <c r="A73" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B73" s="6" t="inlineStr">
+        <is>
+          <t>Ace Ventura: Pet Detective</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Tom Shadyac</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>1994</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Comedy</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B74" s="7" t="n"/>
+      <c r="A74" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B74" s="6" t="inlineStr">
+        <is>
+          <t>Heat</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Michael Mann</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>1995</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B75" s="7" t="n"/>
+      <c r="A75" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B75" s="6" t="inlineStr">
+        <is>
+          <t>Green Zone</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Paul Greengrass</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>2010</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B76" s="7" t="n"/>
+      <c r="A76" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B76" s="6" t="inlineStr">
+        <is>
+          <t>Back to the Future Part II</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Robert Zemeckis</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B77" s="7" t="n"/>
+      <c r="A77" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B77" s="6" t="inlineStr">
+        <is>
+          <t>Kingdom of Heaven</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Ridley Scott</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>2005</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B78" s="7" t="n"/>
+      <c r="A78" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B78" s="6" t="inlineStr">
+        <is>
+          <t>Lethal Weapon 2</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Richard Donner</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>1989</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B79" s="7" t="n"/>
+      <c r="A79" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B79" s="6" t="inlineStr">
+        <is>
+          <t>No Country for Old Men</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Joel Coen</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B80" s="7" t="n"/>
+      <c r="A80" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B80" s="6" t="inlineStr">
+        <is>
+          <t>Outland</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Peter Hyams</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>1981</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Western</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B81" s="7" t="n"/>
+      <c r="A81" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B81" s="6" t="inlineStr">
+        <is>
+          <t>True Romance</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Tony Scott</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>1993</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B82" s="7" t="n"/>
+      <c r="A82" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B82" s="6" t="inlineStr">
+        <is>
+          <t>Glengarry Glen Ross</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>James Foley</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>Mystery</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B83" s="7" t="n"/>
+      <c r="A83" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B83" s="6" t="inlineStr">
+        <is>
+          <t>Starship Troopers</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Paul Verhoeven</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B84" s="7" t="n"/>
+      <c r="A84" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B84" s="6" t="inlineStr">
+        <is>
+          <t>A Bridge Too Far</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Richard Attenborough</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>1977</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B85" s="7" t="n"/>
+      <c r="A85" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B85" s="6" t="inlineStr">
+        <is>
+          <t>The Thin Red Line</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Terrence Malick</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>War</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B86" s="7" t="n"/>
+      <c r="A86" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B86" s="6" t="inlineStr">
+        <is>
+          <t>Con Air</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Simon West</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>1997</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B87" s="7" t="n"/>
+      <c r="A87" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B87" s="6" t="inlineStr">
+        <is>
+          <t>Le fabuleux destin d'Amélie Poulain</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Jean-Pierre Jeunet</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2001</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B88" s="7" t="n"/>
+      <c r="A88" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B88" s="6" t="inlineStr">
+        <is>
+          <t>Predator 2</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Stephen Hopkins</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B89" s="7" t="n"/>
+      <c r="A89" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B89" s="6" t="inlineStr">
+        <is>
+          <t>An Officer and a Gentleman</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Taylor Hackford</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Romance</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B90" s="7" t="n"/>
+      <c r="A90" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B90" s="6" t="inlineStr">
+        <is>
+          <t>Twister</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Jan de Bont</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>1996</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B91" s="7" t="n"/>
+      <c r="A91" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B91" s="6" t="inlineStr">
+        <is>
+          <t>Rocky II</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Sylvester Stallone</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>1979</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B92" s="7" t="n"/>
+      <c r="A92" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B92" s="6" t="inlineStr">
+        <is>
+          <t>There Will Be Blood</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Paul Thomas Anderson</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>2007</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B93" s="7" t="n"/>
+      <c r="A93" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B93" s="6" t="inlineStr">
+        <is>
+          <t>Any Given Sunday</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Oliver Stone</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>1999</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Sport</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B94" s="7" t="n"/>
+      <c r="A94" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B94" s="6" t="inlineStr">
+        <is>
+          <t>Strangers on a Train</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Alfred Hitchcock</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>1951</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B95" s="7" t="n"/>
+      <c r="A95" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B95" s="6" t="inlineStr">
+        <is>
+          <t>JFK</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Oliver Stone</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>1991</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B96" s="7" t="n"/>
+      <c r="A96" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B96" s="6" t="inlineStr">
+        <is>
+          <t>Lat sau san taam</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>John Woo</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>1992</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B97" s="7" t="n"/>
+      <c r="A97" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B97" s="6" t="inlineStr">
+        <is>
+          <t>Total Recall</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Paul Verhoeven</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Sci-Fi</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B98" s="7" t="n"/>
+      <c r="A98" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B98" s="6" t="inlineStr">
+        <is>
+          <t>American History X</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Tony Kaye</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>1998</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Drama</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B99" s="7" t="n"/>
+      <c r="A99" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B99" s="6" t="inlineStr">
+        <is>
+          <t>Halloween III: Season of the Witch</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Tommy Lee Wallace</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>1982</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" s="6" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
-      <c r="B100" s="7" t="n"/>
+      <c r="A100" s="5" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="B100" s="6" t="inlineStr">
+        <is>
+          <t>The Exorcist III: Legion</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>William Peter Blatty</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>1990</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>Thriller</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/films.xlsx
+++ b/films.xlsx
@@ -521,7 +521,7 @@
     <row r="2">
       <c r="A2" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B2" s="6" t="inlineStr">
@@ -546,7 +546,7 @@
     <row r="3">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B3" s="6" t="inlineStr">
@@ -571,7 +571,7 @@
     <row r="4">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B4" s="6" t="inlineStr">
@@ -596,7 +596,7 @@
     <row r="5">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B5" s="6" t="inlineStr">
@@ -621,7 +621,7 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B6" s="6" t="inlineStr">
@@ -646,7 +646,7 @@
     <row r="7">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B7" s="6" t="inlineStr">
@@ -671,7 +671,7 @@
     <row r="8">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B8" s="6" t="inlineStr">
@@ -696,7 +696,7 @@
     <row r="9">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B9" s="6" t="inlineStr">
@@ -721,7 +721,7 @@
     <row r="10">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B10" s="6" t="inlineStr">
@@ -746,7 +746,7 @@
     <row r="11">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B11" s="6" t="inlineStr">
@@ -771,7 +771,7 @@
     <row r="12">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B12" s="6" t="inlineStr">
@@ -796,7 +796,7 @@
     <row r="13">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B13" s="6" t="inlineStr">
@@ -821,7 +821,7 @@
     <row r="14">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B14" s="6" t="inlineStr">
@@ -846,7 +846,7 @@
     <row r="15">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B15" s="6" t="inlineStr">
@@ -871,7 +871,7 @@
     <row r="16">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B16" s="6" t="inlineStr">
@@ -896,7 +896,7 @@
     <row r="17">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B17" s="6" t="inlineStr">
@@ -921,7 +921,7 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B18" s="6" t="inlineStr">
@@ -946,7 +946,7 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B19" s="6" t="inlineStr">
@@ -971,7 +971,7 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B20" s="6" t="inlineStr">
@@ -996,7 +996,7 @@
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B21" s="6" t="inlineStr">
@@ -1021,7 +1021,7 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B22" s="6" t="inlineStr">
@@ -1046,7 +1046,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B23" s="6" t="inlineStr">
@@ -1071,7 +1071,7 @@
     <row r="24">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B24" s="6" t="inlineStr">
@@ -1096,7 +1096,7 @@
     <row r="25">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B25" s="6" t="inlineStr">
@@ -1121,7 +1121,7 @@
     <row r="26">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B26" s="6" t="inlineStr">
@@ -1146,7 +1146,7 @@
     <row r="27">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B27" s="6" t="inlineStr">
@@ -1171,7 +1171,7 @@
     <row r="28">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B28" s="6" t="inlineStr">
@@ -1196,7 +1196,7 @@
     <row r="29">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B29" s="6" t="inlineStr">
@@ -1221,7 +1221,7 @@
     <row r="30">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B30" s="6" t="inlineStr">
@@ -1246,7 +1246,7 @@
     <row r="31">
       <c r="A31" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B31" s="6" t="inlineStr">
@@ -1271,7 +1271,7 @@
     <row r="32">
       <c r="A32" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B32" s="6" t="inlineStr">
@@ -1296,7 +1296,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B33" s="6" t="inlineStr">
@@ -1321,7 +1321,7 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B34" s="6" t="inlineStr">
@@ -1346,7 +1346,7 @@
     <row r="35">
       <c r="A35" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B35" s="6" t="inlineStr">
@@ -1371,7 +1371,7 @@
     <row r="36">
       <c r="A36" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B36" s="6" t="inlineStr">
@@ -1396,7 +1396,7 @@
     <row r="37">
       <c r="A37" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B37" s="6" t="inlineStr">
@@ -1421,7 +1421,7 @@
     <row r="38">
       <c r="A38" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B38" s="6" t="inlineStr">
@@ -1446,7 +1446,7 @@
     <row r="39">
       <c r="A39" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B39" s="6" t="inlineStr">
@@ -1471,7 +1471,7 @@
     <row r="40">
       <c r="A40" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B40" s="6" t="inlineStr">
@@ -1496,7 +1496,7 @@
     <row r="41">
       <c r="A41" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B41" s="6" t="inlineStr">
@@ -1521,7 +1521,7 @@
     <row r="42">
       <c r="A42" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B42" s="6" t="inlineStr">
@@ -1546,7 +1546,7 @@
     <row r="43">
       <c r="A43" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B43" s="6" t="inlineStr">
@@ -1571,7 +1571,7 @@
     <row r="44">
       <c r="A44" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B44" s="6" t="inlineStr">
@@ -1596,7 +1596,7 @@
     <row r="45">
       <c r="A45" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B45" s="6" t="inlineStr">
@@ -1621,7 +1621,7 @@
     <row r="46">
       <c r="A46" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B46" s="6" t="inlineStr">
@@ -1646,7 +1646,7 @@
     <row r="47">
       <c r="A47" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B47" s="6" t="inlineStr">
@@ -1671,7 +1671,7 @@
     <row r="48">
       <c r="A48" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B48" s="6" t="inlineStr">
@@ -1696,7 +1696,7 @@
     <row r="49">
       <c r="A49" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B49" s="6" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="50">
       <c r="A50" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B50" s="6" t="inlineStr">
@@ -1746,7 +1746,7 @@
     <row r="51">
       <c r="A51" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B51" s="6" t="inlineStr">
@@ -1771,7 +1771,7 @@
     <row r="52">
       <c r="A52" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B52" s="6" t="inlineStr">
@@ -1796,7 +1796,7 @@
     <row r="53">
       <c r="A53" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B53" s="6" t="inlineStr">
@@ -1821,7 +1821,7 @@
     <row r="54">
       <c r="A54" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B54" s="6" t="inlineStr">
@@ -1846,7 +1846,7 @@
     <row r="55">
       <c r="A55" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B55" s="6" t="inlineStr">
@@ -1871,7 +1871,7 @@
     <row r="56">
       <c r="A56" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B56" s="6" t="inlineStr">
@@ -1896,7 +1896,7 @@
     <row r="57">
       <c r="A57" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B57" s="6" t="inlineStr">
@@ -1921,7 +1921,7 @@
     <row r="58">
       <c r="A58" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B58" s="6" t="inlineStr">
@@ -1946,7 +1946,7 @@
     <row r="59">
       <c r="A59" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B59" s="6" t="inlineStr">
@@ -1971,7 +1971,7 @@
     <row r="60">
       <c r="A60" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B60" s="6" t="inlineStr">
@@ -1996,7 +1996,7 @@
     <row r="61">
       <c r="A61" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B61" s="6" t="inlineStr">
@@ -2021,7 +2021,7 @@
     <row r="62">
       <c r="A62" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B62" s="6" t="inlineStr">
@@ -2046,7 +2046,7 @@
     <row r="63">
       <c r="A63" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B63" s="6" t="inlineStr">
@@ -2071,7 +2071,7 @@
     <row r="64">
       <c r="A64" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B64" s="6" t="inlineStr">
@@ -2096,7 +2096,7 @@
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B65" s="6" t="inlineStr">
@@ -2121,7 +2121,7 @@
     <row r="66">
       <c r="A66" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B66" s="6" t="inlineStr">
@@ -2146,7 +2146,7 @@
     <row r="67">
       <c r="A67" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B67" s="6" t="inlineStr">
@@ -2171,7 +2171,7 @@
     <row r="68">
       <c r="A68" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B68" s="6" t="inlineStr">
@@ -2196,7 +2196,7 @@
     <row r="69">
       <c r="A69" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B69" s="6" t="inlineStr">
@@ -2221,7 +2221,7 @@
     <row r="70">
       <c r="A70" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B70" s="6" t="inlineStr">
@@ -2246,7 +2246,7 @@
     <row r="71">
       <c r="A71" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B71" s="6" t="inlineStr">
@@ -2271,7 +2271,7 @@
     <row r="72">
       <c r="A72" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B72" s="6" t="inlineStr">
@@ -2296,7 +2296,7 @@
     <row r="73">
       <c r="A73" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B73" s="6" t="inlineStr">
@@ -2321,7 +2321,7 @@
     <row r="74">
       <c r="A74" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B74" s="6" t="inlineStr">
@@ -2346,7 +2346,7 @@
     <row r="75">
       <c r="A75" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B75" s="6" t="inlineStr">
@@ -2371,7 +2371,7 @@
     <row r="76">
       <c r="A76" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B76" s="6" t="inlineStr">
@@ -2396,7 +2396,7 @@
     <row r="77">
       <c r="A77" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B77" s="6" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="78">
       <c r="A78" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B78" s="6" t="inlineStr">
@@ -2446,7 +2446,7 @@
     <row r="79">
       <c r="A79" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B79" s="6" t="inlineStr">
@@ -2471,7 +2471,7 @@
     <row r="80">
       <c r="A80" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B80" s="6" t="inlineStr">
@@ -2496,7 +2496,7 @@
     <row r="81">
       <c r="A81" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B81" s="6" t="inlineStr">
@@ -2521,7 +2521,7 @@
     <row r="82">
       <c r="A82" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B82" s="6" t="inlineStr">
@@ -2546,7 +2546,7 @@
     <row r="83">
       <c r="A83" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B83" s="6" t="inlineStr">
@@ -2571,7 +2571,7 @@
     <row r="84">
       <c r="A84" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B84" s="6" t="inlineStr">
@@ -2596,7 +2596,7 @@
     <row r="85">
       <c r="A85" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B85" s="6" t="inlineStr">
@@ -2621,7 +2621,7 @@
     <row r="86">
       <c r="A86" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B86" s="6" t="inlineStr">
@@ -2646,7 +2646,7 @@
     <row r="87">
       <c r="A87" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B87" s="6" t="inlineStr">
@@ -2671,7 +2671,7 @@
     <row r="88">
       <c r="A88" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B88" s="6" t="inlineStr">
@@ -2696,7 +2696,7 @@
     <row r="89">
       <c r="A89" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B89" s="6" t="inlineStr">
@@ -2721,7 +2721,7 @@
     <row r="90">
       <c r="A90" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B90" s="6" t="inlineStr">
@@ -2746,7 +2746,7 @@
     <row r="91">
       <c r="A91" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B91" s="6" t="inlineStr">
@@ -2771,7 +2771,7 @@
     <row r="92">
       <c r="A92" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B92" s="6" t="inlineStr">
@@ -2796,7 +2796,7 @@
     <row r="93">
       <c r="A93" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B93" s="6" t="inlineStr">
@@ -2821,7 +2821,7 @@
     <row r="94">
       <c r="A94" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B94" s="6" t="inlineStr">
@@ -2846,7 +2846,7 @@
     <row r="95">
       <c r="A95" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B95" s="6" t="inlineStr">
@@ -2871,7 +2871,7 @@
     <row r="96">
       <c r="A96" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B96" s="6" t="inlineStr">
@@ -2896,7 +2896,7 @@
     <row r="97">
       <c r="A97" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B97" s="6" t="inlineStr">
@@ -2921,7 +2921,7 @@
     <row r="98">
       <c r="A98" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B98" s="6" t="inlineStr">
@@ -2946,7 +2946,7 @@
     <row r="99">
       <c r="A99" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B99" s="6" t="inlineStr">
@@ -2971,7 +2971,7 @@
     <row r="100">
       <c r="A100" s="5" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>\*</t>
         </is>
       </c>
       <c r="B100" s="6" t="inlineStr">

--- a/films.xlsx
+++ b/films.xlsx
@@ -2,25 +2,72 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10611"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tommydates/Desktop/csv/MovieIMDbCSV/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD73E3A3-023D-5046-A4CC-F646FD39CFB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4482E33B-6974-7C44-8397-7B4CB2FFDCCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="26620" windowHeight="14860" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="500" windowWidth="26620" windowHeight="14860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="films_raw" sheetId="1" r:id="rId1"/>
+    <sheet name="Box Office" sheetId="2" r:id="rId1"/>
+    <sheet name="Grouped Movie Year" sheetId="3" r:id="rId2"/>
+    <sheet name="films_raw" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">films_raw!$F$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">films_raw!$F$2:$F$100</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">films_raw!$F$1</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">films_raw!$F$2:$F$100</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="5" r:id="rId4"/>
+    <pivotCache cacheId="9" r:id="rId5"/>
+  </pivotCaches>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="501" uniqueCount="313">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="603" uniqueCount="316">
   <si>
     <t>year</t>
   </si>
@@ -959,6 +1006,15 @@
   </si>
   <si>
     <t>George C. Scott, Ed Flanders, Brad Dourif</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Movies Grouped by Year</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Most Frequent Director </t>
   </si>
 </sst>
 </file>
@@ -968,7 +1024,7 @@
   <numFmts count="1">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1019,8 +1075,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="7" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1033,8 +1111,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1057,11 +1153,137 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF999999"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF999999"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="65"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF999999"/>
+      </right>
+      <top style="thin">
+        <color indexed="65"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF999999"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1113,11 +1335,186 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFA7D00"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.499984740745262"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="-0.249977111117893"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color theme="0" tint="-0.499984740745262"/>
+      </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="3" tint="0.59999389629810485"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FFFA7D00"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="65"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FF7F7F7F"/>
+        </left>
+        <right style="thin">
+          <color rgb="FF7F7F7F"/>
+        </right>
+        <top style="thin">
+          <color rgb="FF7F7F7F"/>
+        </top>
+        <bottom style="thin">
+          <color rgb="FF7F7F7F"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
@@ -1133,6 +1530,3628 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-GB"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>films_raw!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Box Office WorldWide (US$)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:cat>
+            <c:strRef>
+              <c:f>films_raw!$C$1:$C$100</c:f>
+              <c:strCache>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>movie</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Alien</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Predator</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Inception</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Aliens</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>The Lord of the Rings: The Two Towers</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Collateral</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Batman Begins</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>The Dark Knight</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>The Blues Brothers</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>The Lord of the Rings: The Return of the King</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>The Lord of the Rings: The Fellowship of the Ring</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Snatch</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Reign of Fire</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Equilibrium</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Memento</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Insomnia</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Sorcerer</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>To Live and Die in L.A.</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>10 Things I Hate About You</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Die Hard with a Vengeance</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Se7en</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>GoldenEye</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>Casino Royale</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>The Omen</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>Django Unchained</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>Pulp Fiction</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>Inglourious Basterds</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>Prisoners</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>Blade Runner 2049</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>Sicario</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>Event Horizon</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>They Live</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>Hard Target</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>Dodgeball: A True Underdog Story</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>Gladiator</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>Black Hawk Down</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>O Brother, Where Art Thou?</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>Fargo</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>Tombstone</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>Per un pugno di dollari</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>Per qualche dollaro in più</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>Gran Torino</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>Alien³</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>Wedding Crashers</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>Napoleon Dynamite</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>Blade Runner</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>Terminator 2: Judgment Day</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>The Replacements</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>Cop Land</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>Jurassic Park</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>Transformers</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>Dirty Harry</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>Serbuan maut 2: Berandal</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>Blade</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>Top Gun: Maverick</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>Gone in Sixty Seconds</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>Donnie Darko</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>Léon</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>Happy Gilmore</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>Mean Girls</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>Mulholland Dr.</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>Star Wars: Episode VI - Return of the Jedi</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>Up</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>The Iron Giant</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>Toy Story 2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>Mission: Impossible II</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>Mission: Impossible - Fallout</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>Smokey and the Bandit</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>The French Connection</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>Waiting...</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>Broken Arrow</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>Ace Ventura: Pet Detective</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>Heat</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>Green Zone</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>Back to the Future Part III</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>Kingdom of Heaven</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>Lethal Weapon 2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>No Country for Old Men</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>Outland</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>True Romance</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>Glengarry Glen Ross</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>Starship Troopers</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>A Bridge Too Far</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>The Thin Red Line</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>Con Air</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>Le fabuleux destin d'Amélie Poulain</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>Predator 2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>An Officer and a Gentleman</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>Twister</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>Rocky II</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>There Will Be Blood</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>Any Given Sunday</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>Strangers on a Train</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>JFK</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>Lat sau san taam</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>Total Recall</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>American History X</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>Halloween III: Season of the Witch</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>The Exorcist III: Legion</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>films_raw!$F$2:$F$100</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="99"/>
+                <c:pt idx="0">
+                  <c:v>203630630</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>38532010</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>825532764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>131060248</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>947000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>217764291</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>374218673</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1004558444</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>115200000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1119929521</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>871530324</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>83557872</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>82150183</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5359645</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>39723096</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>113714830</c:v>
+                </c:pt>
+                <c:pt idx="16" formatCode="#,##0">
+                  <c:v>12006232</c:v>
+                </c:pt>
+                <c:pt idx="17" formatCode="#,##0">
+                  <c:v>17300000</c:v>
+                </c:pt>
+                <c:pt idx="18" formatCode="#,##0">
+                  <c:v>53478166</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>366101666</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>327333559</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>352194034</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>616505162</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>60922980</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>426074373</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>213928762</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>321457747</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>122126687</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>267770708</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>84997446</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>26673829</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>13009198</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>74189677</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>168423227</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>503162313</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>172989651</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>71870729</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>60611975</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>56505065</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14516248</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15000000</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>269958228</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>159814498</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>288485135</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46138887</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>41722424</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>520881154</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>50054511</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44862187</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1109802321</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>709709780</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35988495</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>6566916</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>131211377</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1495696292</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>237202299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>7013602</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19569225</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>41205099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>130126277</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>20271953</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>475106177</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>735099102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>23335817</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>497375381</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>546388108</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>791657398</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>126737428</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>51700666</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18637690</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>150270147</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>107217396</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>187436818</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>113377594</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>245077583</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>218122627</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>227853986</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>171627434</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17374595</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13088850</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>10725228</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>121214377</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>50750000</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>98126565</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>224012234</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>174122191</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>57120318</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>129795554</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>494580615</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>85187855</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>76182388</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>100230832</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29662</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>205405498</c:v>
+                </c:pt>
+                <c:pt idx="94" formatCode="#,##0.00">
+                  <c:v>2518859</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>261317921</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>23875127</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>14400000</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>39024251</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-66D6-9C41-8DD6-4E8FFC8FA119}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="823462287"/>
+        <c:axId val="795673695"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="823462287"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="795673695"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="0"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="795673695"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="823462287"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4458420-E65D-534F-AF69-19803E211931}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45107.872495601849" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="99" xr:uid="{2E8113C5-0CF0-2840-AB1F-08DEDAB9DDE9}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:C100" sheet="films_raw"/>
+  </cacheSource>
+  <cacheFields count="2">
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1951" maxValue="2022"/>
+    </cacheField>
+    <cacheField name="movie" numFmtId="0">
+      <sharedItems count="99">
+        <s v="Alien"/>
+        <s v="Predator"/>
+        <s v="Inception"/>
+        <s v="Aliens"/>
+        <s v="The Lord of the Rings: The Two Towers"/>
+        <s v="Collateral"/>
+        <s v="Batman Begins"/>
+        <s v="The Dark Knight"/>
+        <s v="The Blues Brothers"/>
+        <s v="The Lord of the Rings: The Return of the King"/>
+        <s v="The Lord of the Rings: The Fellowship of the Ring"/>
+        <s v="Snatch"/>
+        <s v="Reign of Fire"/>
+        <s v="Equilibrium"/>
+        <s v="Memento"/>
+        <s v="Insomnia"/>
+        <s v="Sorcerer"/>
+        <s v="To Live and Die in L.A."/>
+        <s v="10 Things I Hate About You"/>
+        <s v="Die Hard with a Vengeance"/>
+        <s v="Se7en"/>
+        <s v="GoldenEye"/>
+        <s v="Casino Royale"/>
+        <s v="The Omen"/>
+        <s v="Django Unchained"/>
+        <s v="Pulp Fiction"/>
+        <s v="Inglourious Basterds"/>
+        <s v="Prisoners"/>
+        <s v="Blade Runner 2049"/>
+        <s v="Sicario"/>
+        <s v="Event Horizon"/>
+        <s v="They Live"/>
+        <s v="Hard Target"/>
+        <s v="Dodgeball: A True Underdog Story"/>
+        <s v="Gladiator"/>
+        <s v="Black Hawk Down"/>
+        <s v="O Brother, Where Art Thou?"/>
+        <s v="Fargo"/>
+        <s v="Tombstone"/>
+        <s v="Per un pugno di dollari"/>
+        <s v="Per qualche dollaro in più"/>
+        <s v="Gran Torino"/>
+        <s v="Alien³"/>
+        <s v="Wedding Crashers"/>
+        <s v="Napoleon Dynamite"/>
+        <s v="Blade Runner"/>
+        <s v="Terminator 2: Judgment Day"/>
+        <s v="The Replacements"/>
+        <s v="Cop Land"/>
+        <s v="Jurassic Park"/>
+        <s v="Transformers"/>
+        <s v="Dirty Harry"/>
+        <s v="Serbuan maut 2: Berandal"/>
+        <s v="Blade"/>
+        <s v="Top Gun: Maverick"/>
+        <s v="Gone in Sixty Seconds"/>
+        <s v="Donnie Darko"/>
+        <s v="Léon"/>
+        <s v="Happy Gilmore"/>
+        <s v="Mean Girls"/>
+        <s v="Mulholland Dr."/>
+        <s v="Star Wars: Episode VI - Return of the Jedi"/>
+        <s v="Up"/>
+        <s v="The Iron Giant"/>
+        <s v="Toy Story 2"/>
+        <s v="Mission: Impossible II"/>
+        <s v="Mission: Impossible - Fallout"/>
+        <s v="Smokey and the Bandit"/>
+        <s v="The French Connection"/>
+        <s v="Waiting..."/>
+        <s v="Broken Arrow"/>
+        <s v="Ace Ventura: Pet Detective"/>
+        <s v="Heat"/>
+        <s v="Green Zone"/>
+        <s v="Back to the Future Part III"/>
+        <s v="Kingdom of Heaven"/>
+        <s v="Lethal Weapon 2"/>
+        <s v="No Country for Old Men"/>
+        <s v="Outland"/>
+        <s v="True Romance"/>
+        <s v="Glengarry Glen Ross"/>
+        <s v="Starship Troopers"/>
+        <s v="A Bridge Too Far"/>
+        <s v="The Thin Red Line"/>
+        <s v="Con Air"/>
+        <s v="Le fabuleux destin d'Amélie Poulain"/>
+        <s v="Predator 2"/>
+        <s v="An Officer and a Gentleman"/>
+        <s v="Twister"/>
+        <s v="Rocky II"/>
+        <s v="There Will Be Blood"/>
+        <s v="Any Given Sunday"/>
+        <s v="Strangers on a Train"/>
+        <s v="JFK"/>
+        <s v="Lat sau san taam"/>
+        <s v="Total Recall"/>
+        <s v="American History X"/>
+        <s v="Halloween III: Season of the Witch"/>
+        <s v="The Exorcist III: Legion"/>
+      </sharedItems>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Microsoft Office User" refreshedDate="45107.875150925924" createdVersion="8" refreshedVersion="8" minRefreshableVersion="3" recordCount="99" xr:uid="{0D269C62-102C-C844-A690-F65051864EB1}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="B1:G100" sheet="films_raw"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="year" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1951" maxValue="2022" count="44">
+        <n v="1979"/>
+        <n v="1987"/>
+        <n v="2010"/>
+        <n v="1986"/>
+        <n v="2002"/>
+        <n v="2004"/>
+        <n v="2005"/>
+        <n v="2008"/>
+        <n v="1980"/>
+        <n v="2003"/>
+        <n v="2001"/>
+        <n v="2000"/>
+        <n v="1977"/>
+        <n v="1985"/>
+        <n v="1999"/>
+        <n v="1995"/>
+        <n v="2006"/>
+        <n v="1976"/>
+        <n v="2012"/>
+        <n v="1994"/>
+        <n v="2009"/>
+        <n v="2013"/>
+        <n v="2017"/>
+        <n v="2015"/>
+        <n v="1997"/>
+        <n v="1988"/>
+        <n v="1993"/>
+        <n v="1996"/>
+        <n v="1964"/>
+        <n v="1965"/>
+        <n v="1992"/>
+        <n v="1982"/>
+        <n v="1991"/>
+        <n v="2007"/>
+        <n v="1971"/>
+        <n v="2014"/>
+        <n v="1998"/>
+        <n v="2022"/>
+        <n v="1983"/>
+        <n v="2018"/>
+        <n v="1990"/>
+        <n v="1989"/>
+        <n v="1981"/>
+        <n v="1951"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="movie" numFmtId="0">
+      <sharedItems count="99">
+        <s v="Alien"/>
+        <s v="Predator"/>
+        <s v="Inception"/>
+        <s v="Aliens"/>
+        <s v="The Lord of the Rings: The Two Towers"/>
+        <s v="Collateral"/>
+        <s v="Batman Begins"/>
+        <s v="The Dark Knight"/>
+        <s v="The Blues Brothers"/>
+        <s v="The Lord of the Rings: The Return of the King"/>
+        <s v="The Lord of the Rings: The Fellowship of the Ring"/>
+        <s v="Snatch"/>
+        <s v="Reign of Fire"/>
+        <s v="Equilibrium"/>
+        <s v="Memento"/>
+        <s v="Insomnia"/>
+        <s v="Sorcerer"/>
+        <s v="To Live and Die in L.A."/>
+        <s v="10 Things I Hate About You"/>
+        <s v="Die Hard with a Vengeance"/>
+        <s v="Se7en"/>
+        <s v="GoldenEye"/>
+        <s v="Casino Royale"/>
+        <s v="The Omen"/>
+        <s v="Django Unchained"/>
+        <s v="Pulp Fiction"/>
+        <s v="Inglourious Basterds"/>
+        <s v="Prisoners"/>
+        <s v="Blade Runner 2049"/>
+        <s v="Sicario"/>
+        <s v="Event Horizon"/>
+        <s v="They Live"/>
+        <s v="Hard Target"/>
+        <s v="Dodgeball: A True Underdog Story"/>
+        <s v="Gladiator"/>
+        <s v="Black Hawk Down"/>
+        <s v="O Brother, Where Art Thou?"/>
+        <s v="Fargo"/>
+        <s v="Tombstone"/>
+        <s v="Per un pugno di dollari"/>
+        <s v="Per qualche dollaro in più"/>
+        <s v="Gran Torino"/>
+        <s v="Alien³"/>
+        <s v="Wedding Crashers"/>
+        <s v="Napoleon Dynamite"/>
+        <s v="Blade Runner"/>
+        <s v="Terminator 2: Judgment Day"/>
+        <s v="The Replacements"/>
+        <s v="Cop Land"/>
+        <s v="Jurassic Park"/>
+        <s v="Transformers"/>
+        <s v="Dirty Harry"/>
+        <s v="Serbuan maut 2: Berandal"/>
+        <s v="Blade"/>
+        <s v="Top Gun: Maverick"/>
+        <s v="Gone in Sixty Seconds"/>
+        <s v="Donnie Darko"/>
+        <s v="Léon"/>
+        <s v="Happy Gilmore"/>
+        <s v="Mean Girls"/>
+        <s v="Mulholland Dr."/>
+        <s v="Star Wars: Episode VI - Return of the Jedi"/>
+        <s v="Up"/>
+        <s v="The Iron Giant"/>
+        <s v="Toy Story 2"/>
+        <s v="Mission: Impossible II"/>
+        <s v="Mission: Impossible - Fallout"/>
+        <s v="Smokey and the Bandit"/>
+        <s v="The French Connection"/>
+        <s v="Waiting..."/>
+        <s v="Broken Arrow"/>
+        <s v="Ace Ventura: Pet Detective"/>
+        <s v="Heat"/>
+        <s v="Green Zone"/>
+        <s v="Back to the Future Part III"/>
+        <s v="Kingdom of Heaven"/>
+        <s v="Lethal Weapon 2"/>
+        <s v="No Country for Old Men"/>
+        <s v="Outland"/>
+        <s v="True Romance"/>
+        <s v="Glengarry Glen Ross"/>
+        <s v="Starship Troopers"/>
+        <s v="A Bridge Too Far"/>
+        <s v="The Thin Red Line"/>
+        <s v="Con Air"/>
+        <s v="Le fabuleux destin d'Amélie Poulain"/>
+        <s v="Predator 2"/>
+        <s v="An Officer and a Gentleman"/>
+        <s v="Twister"/>
+        <s v="Rocky II"/>
+        <s v="There Will Be Blood"/>
+        <s v="Any Given Sunday"/>
+        <s v="Strangers on a Train"/>
+        <s v="JFK"/>
+        <s v="Lat sau san taam"/>
+        <s v="Total Recall"/>
+        <s v="American History X"/>
+        <s v="Halloween III: Season of the Witch"/>
+        <s v="The Exorcist III: Legion"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Genres" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Director" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Box Office WorldWide (US$)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="29662" maxValue="1495696292"/>
+    </cacheField>
+    <cacheField name="Top 3 Billed Actors" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="99">
+  <r>
+    <n v="1979"/>
+    <x v="0"/>
+  </r>
+  <r>
+    <n v="1987"/>
+    <x v="1"/>
+  </r>
+  <r>
+    <n v="2010"/>
+    <x v="2"/>
+  </r>
+  <r>
+    <n v="1986"/>
+    <x v="3"/>
+  </r>
+  <r>
+    <n v="2002"/>
+    <x v="4"/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <x v="5"/>
+  </r>
+  <r>
+    <n v="2005"/>
+    <x v="6"/>
+  </r>
+  <r>
+    <n v="2008"/>
+    <x v="7"/>
+  </r>
+  <r>
+    <n v="1980"/>
+    <x v="8"/>
+  </r>
+  <r>
+    <n v="2003"/>
+    <x v="9"/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <x v="10"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="11"/>
+  </r>
+  <r>
+    <n v="2002"/>
+    <x v="12"/>
+  </r>
+  <r>
+    <n v="2002"/>
+    <x v="13"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="14"/>
+  </r>
+  <r>
+    <n v="2002"/>
+    <x v="15"/>
+  </r>
+  <r>
+    <n v="1977"/>
+    <x v="16"/>
+  </r>
+  <r>
+    <n v="1985"/>
+    <x v="17"/>
+  </r>
+  <r>
+    <n v="1999"/>
+    <x v="18"/>
+  </r>
+  <r>
+    <n v="1995"/>
+    <x v="19"/>
+  </r>
+  <r>
+    <n v="1995"/>
+    <x v="20"/>
+  </r>
+  <r>
+    <n v="1995"/>
+    <x v="21"/>
+  </r>
+  <r>
+    <n v="2006"/>
+    <x v="22"/>
+  </r>
+  <r>
+    <n v="1976"/>
+    <x v="23"/>
+  </r>
+  <r>
+    <n v="2012"/>
+    <x v="24"/>
+  </r>
+  <r>
+    <n v="1994"/>
+    <x v="25"/>
+  </r>
+  <r>
+    <n v="2009"/>
+    <x v="26"/>
+  </r>
+  <r>
+    <n v="2013"/>
+    <x v="27"/>
+  </r>
+  <r>
+    <n v="2017"/>
+    <x v="28"/>
+  </r>
+  <r>
+    <n v="2015"/>
+    <x v="29"/>
+  </r>
+  <r>
+    <n v="1997"/>
+    <x v="30"/>
+  </r>
+  <r>
+    <n v="1988"/>
+    <x v="31"/>
+  </r>
+  <r>
+    <n v="1993"/>
+    <x v="32"/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <x v="33"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="34"/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <x v="35"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="36"/>
+  </r>
+  <r>
+    <n v="1996"/>
+    <x v="37"/>
+  </r>
+  <r>
+    <n v="1993"/>
+    <x v="38"/>
+  </r>
+  <r>
+    <n v="1964"/>
+    <x v="39"/>
+  </r>
+  <r>
+    <n v="1965"/>
+    <x v="40"/>
+  </r>
+  <r>
+    <n v="2008"/>
+    <x v="41"/>
+  </r>
+  <r>
+    <n v="1992"/>
+    <x v="42"/>
+  </r>
+  <r>
+    <n v="2005"/>
+    <x v="43"/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <x v="44"/>
+  </r>
+  <r>
+    <n v="1982"/>
+    <x v="45"/>
+  </r>
+  <r>
+    <n v="1991"/>
+    <x v="46"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="47"/>
+  </r>
+  <r>
+    <n v="1997"/>
+    <x v="48"/>
+  </r>
+  <r>
+    <n v="1993"/>
+    <x v="49"/>
+  </r>
+  <r>
+    <n v="2007"/>
+    <x v="50"/>
+  </r>
+  <r>
+    <n v="1971"/>
+    <x v="51"/>
+  </r>
+  <r>
+    <n v="2014"/>
+    <x v="52"/>
+  </r>
+  <r>
+    <n v="1998"/>
+    <x v="53"/>
+  </r>
+  <r>
+    <n v="2022"/>
+    <x v="54"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="55"/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <x v="56"/>
+  </r>
+  <r>
+    <n v="1994"/>
+    <x v="57"/>
+  </r>
+  <r>
+    <n v="1996"/>
+    <x v="58"/>
+  </r>
+  <r>
+    <n v="2004"/>
+    <x v="59"/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <x v="60"/>
+  </r>
+  <r>
+    <n v="1983"/>
+    <x v="61"/>
+  </r>
+  <r>
+    <n v="2009"/>
+    <x v="62"/>
+  </r>
+  <r>
+    <n v="1999"/>
+    <x v="63"/>
+  </r>
+  <r>
+    <n v="1999"/>
+    <x v="64"/>
+  </r>
+  <r>
+    <n v="2000"/>
+    <x v="65"/>
+  </r>
+  <r>
+    <n v="2018"/>
+    <x v="66"/>
+  </r>
+  <r>
+    <n v="1977"/>
+    <x v="67"/>
+  </r>
+  <r>
+    <n v="1971"/>
+    <x v="68"/>
+  </r>
+  <r>
+    <n v="2005"/>
+    <x v="69"/>
+  </r>
+  <r>
+    <n v="1996"/>
+    <x v="70"/>
+  </r>
+  <r>
+    <n v="1994"/>
+    <x v="71"/>
+  </r>
+  <r>
+    <n v="1995"/>
+    <x v="72"/>
+  </r>
+  <r>
+    <n v="2010"/>
+    <x v="73"/>
+  </r>
+  <r>
+    <n v="1990"/>
+    <x v="74"/>
+  </r>
+  <r>
+    <n v="2005"/>
+    <x v="75"/>
+  </r>
+  <r>
+    <n v="1989"/>
+    <x v="76"/>
+  </r>
+  <r>
+    <n v="2007"/>
+    <x v="77"/>
+  </r>
+  <r>
+    <n v="1981"/>
+    <x v="78"/>
+  </r>
+  <r>
+    <n v="1993"/>
+    <x v="79"/>
+  </r>
+  <r>
+    <n v="1992"/>
+    <x v="80"/>
+  </r>
+  <r>
+    <n v="1997"/>
+    <x v="81"/>
+  </r>
+  <r>
+    <n v="1977"/>
+    <x v="82"/>
+  </r>
+  <r>
+    <n v="1998"/>
+    <x v="83"/>
+  </r>
+  <r>
+    <n v="1997"/>
+    <x v="84"/>
+  </r>
+  <r>
+    <n v="2001"/>
+    <x v="85"/>
+  </r>
+  <r>
+    <n v="1990"/>
+    <x v="86"/>
+  </r>
+  <r>
+    <n v="1982"/>
+    <x v="87"/>
+  </r>
+  <r>
+    <n v="1996"/>
+    <x v="88"/>
+  </r>
+  <r>
+    <n v="1979"/>
+    <x v="89"/>
+  </r>
+  <r>
+    <n v="2007"/>
+    <x v="90"/>
+  </r>
+  <r>
+    <n v="1999"/>
+    <x v="91"/>
+  </r>
+  <r>
+    <n v="1951"/>
+    <x v="92"/>
+  </r>
+  <r>
+    <n v="1991"/>
+    <x v="93"/>
+  </r>
+  <r>
+    <n v="1992"/>
+    <x v="94"/>
+  </r>
+  <r>
+    <n v="1990"/>
+    <x v="95"/>
+  </r>
+  <r>
+    <n v="1998"/>
+    <x v="96"/>
+  </r>
+  <r>
+    <n v="1982"/>
+    <x v="97"/>
+  </r>
+  <r>
+    <n v="1990"/>
+    <x v="98"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="99">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Sci-FI, Horror"/>
+    <s v="Ridley Scott"/>
+    <n v="203630630"/>
+    <s v="Tom Skerritt, Sigourney Weaver, Veronica Cartwright"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Action, Sci-Fi"/>
+    <s v="John McTiernan"/>
+    <n v="38532010"/>
+    <s v="Arnold Schwarzenegger, Carl Weathers, Elpidia Carrillo"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <s v="Action, Sci-Fi"/>
+    <s v="Christopher Nolan"/>
+    <n v="825532764"/>
+    <s v="Leonardo DiCaprio, Joseph Gordon-Levitt, Elliot Page"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="3"/>
+    <s v="Action, Sci-Fi"/>
+    <s v="James Cameron"/>
+    <n v="131060248"/>
+    <s v="Sigourney Weaver, Carrie Henn, Michael Biehn"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="4"/>
+    <s v="Action, Fantasy"/>
+    <s v="Peter Jackson"/>
+    <n v="947000000"/>
+    <s v="Elijah Wood, Ian McKellan, Viggo Mortensen"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="5"/>
+    <s v="Crime, Thriller"/>
+    <s v="Michael Mann"/>
+    <n v="217764291"/>
+    <s v="Tom Cruise, Jamie Foxx, Jada Pinkett Smith"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="6"/>
+    <s v="Action, Crime"/>
+    <s v="Christopher Nolan"/>
+    <n v="374218673"/>
+    <s v="Christian Bale, Michael Caine, Liam Neeson"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="7"/>
+    <s v="Action, Crime"/>
+    <s v="Christopher Nolan"/>
+    <n v="1004558444"/>
+    <s v="Christian Bale, Heath Ledger, Aaron Eckhart"/>
+  </r>
+  <r>
+    <x v="8"/>
+    <x v="8"/>
+    <s v="Comedy, Musical"/>
+    <s v="John Landis"/>
+    <n v="115200000"/>
+    <s v="John Belushi, Dan Aykroyd, Cab Calloway"/>
+  </r>
+  <r>
+    <x v="9"/>
+    <x v="9"/>
+    <s v="Action, Fantasy"/>
+    <s v="Peter Jackson"/>
+    <n v="1119929521"/>
+    <s v="Elijah Wood, Ian McKellan, Viggo Mortensen"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="10"/>
+    <s v="Action, Fantasy"/>
+    <s v="Peter Jackson"/>
+    <n v="871530324"/>
+    <s v="Elijah Wood, Ian McKellan, Viggo Mortensen"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="11"/>
+    <s v="Comedy, Crime"/>
+    <s v="Guy Ritchie"/>
+    <n v="83557872"/>
+    <s v="Jason Statham, Brad Pitt, Stephen Graham"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="12"/>
+    <s v="Action, Thriller"/>
+    <s v="Rob Bowman"/>
+    <n v="82150183"/>
+    <s v="Christian Bale, Matthew McConaughey, Izabella Scorupco"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="13"/>
+    <s v="Action, Sci-Fi"/>
+    <s v="Kurt Wimmer"/>
+    <n v="5359645"/>
+    <s v="Dominic Purcell, Christian Bale, Sean Bean"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="14"/>
+    <s v="Mystery, Thriller"/>
+    <s v="Christopher Nolan"/>
+    <n v="39723096"/>
+    <s v="Guy Pearce, Carrie-Anne Moss, Joe Pantoliano"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="15"/>
+    <s v="Mystery, Thriller"/>
+    <s v="Christopher Nolan"/>
+    <n v="113714830"/>
+    <s v="Al Pacino, Martin Donovan, Oliver 'Ole' Zemen"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="16"/>
+    <s v="Adventure, Drama"/>
+    <s v="William Friedkin"/>
+    <n v="12006232"/>
+    <s v="Roy Scheider, Bruno Cremer, Francisco Rabal"/>
+  </r>
+  <r>
+    <x v="13"/>
+    <x v="17"/>
+    <s v="Crime, Thriller"/>
+    <s v="William Friedkin"/>
+    <n v="17300000"/>
+    <s v="William Petersen, Willem Dafoe, Jane Leeves"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="18"/>
+    <s v="Romantic, Comedy"/>
+    <s v="Gil Junger"/>
+    <n v="53478166"/>
+    <s v="Heath Ledger, Julia Stiles, Joseph Gordon-Levitt"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="19"/>
+    <s v="Action, Thriller"/>
+    <s v="John McTiernan"/>
+    <n v="366101666"/>
+    <s v="Bruce Willis, Jeremy Irons, Samuel L. Jackson"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="20"/>
+    <s v="Crime, Thriller"/>
+    <s v="David Fincher"/>
+    <n v="327333559"/>
+    <s v="Morgan Freeman, Brad Pitt, Kevin Spacey"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="21"/>
+    <s v="Action, Adventure"/>
+    <s v="Martin Campbell"/>
+    <n v="352194034"/>
+    <s v="Pierce Brosnan, Sean Bean, Izabella Scorupco"/>
+  </r>
+  <r>
+    <x v="16"/>
+    <x v="22"/>
+    <s v="Action, Adventure"/>
+    <s v="Martin Campbell"/>
+    <n v="616505162"/>
+    <s v="Daniel Craig, Eva Green, Mads Mikkelsen"/>
+  </r>
+  <r>
+    <x v="17"/>
+    <x v="23"/>
+    <s v="Horror, Mystery"/>
+    <s v="Richard Donner"/>
+    <n v="60922980"/>
+    <s v="Gregory Peck, Lee Remick, Harvey Stephens"/>
+  </r>
+  <r>
+    <x v="18"/>
+    <x v="24"/>
+    <s v="Drama, Western"/>
+    <s v="Quentin Tarantino"/>
+    <n v="426074373"/>
+    <s v="Jamie Foxx, Christoph Waltz, Leonardo DiCaprio"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="25"/>
+    <s v="Comedy, Drama"/>
+    <s v="Quentin Tarantino"/>
+    <n v="213928762"/>
+    <s v="John Travolta, Samuel L. Jackson, Bruce Willis"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="26"/>
+    <s v="Action,Comedy"/>
+    <s v="Quentin Tarantino"/>
+    <n v="321457747"/>
+    <s v="Brad Pitt, Mélanie Laurent, Christoph Waltz"/>
+  </r>
+  <r>
+    <x v="21"/>
+    <x v="27"/>
+    <s v="Crime, Drama"/>
+    <s v="Denis Villeneuve"/>
+    <n v="122126687"/>
+    <s v="Hugh Jackman, Jake Gyllenhaal, Viola Davis"/>
+  </r>
+  <r>
+    <x v="22"/>
+    <x v="28"/>
+    <s v="Scifi, Mystery"/>
+    <s v="Denis Villeneuve"/>
+    <n v="267770708"/>
+    <s v="Ryan Gosling, Dave Bautista,Robin Wright"/>
+  </r>
+  <r>
+    <x v="23"/>
+    <x v="29"/>
+    <s v="Action, Crime"/>
+    <s v="Denis Villeneuve"/>
+    <n v="84997446"/>
+    <s v="Emily Blunt, Benicio Del Toro, Josh Brolin"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="30"/>
+    <s v="Sci-FI, Horror"/>
+    <s v="Paul W.S. Anderson"/>
+    <n v="26673829"/>
+    <s v="Laurence Fishburne, Sam Neill, Kathleen Quinlan"/>
+  </r>
+  <r>
+    <x v="25"/>
+    <x v="31"/>
+    <s v="Action, Horror"/>
+    <s v="John Carpenter"/>
+    <n v="13009198"/>
+    <s v="Roddy Piper, Keith David, Meg Foster"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="32"/>
+    <s v="Action, Thriller"/>
+    <s v="John Woo"/>
+    <n v="74189677"/>
+    <s v="Jean Claude Van-Damme, Lance Henriksen, Yancy Butler"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="33"/>
+    <s v="Sports, Comedy"/>
+    <s v="Rawson Marshall Thurber"/>
+    <n v="168423227"/>
+    <s v="Vince Vaughn, Christine Taylor, Ben Stiller"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="34"/>
+    <s v="Action, Drama"/>
+    <s v="Ridley Scott"/>
+    <n v="503162313"/>
+    <s v="Russell Crowe, Joaquin Phoenix, Connie Nielsen"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="35"/>
+    <s v="War, Action"/>
+    <s v="Ridley Scott"/>
+    <n v="172989651"/>
+    <s v="Josh Hartnett, Ewan McGregor, Tom Sizemore"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="36"/>
+    <s v="Comedy, Musical"/>
+    <s v="Coen Brothers"/>
+    <n v="71870729"/>
+    <s v="George Clooney, John Turturro, Tim Blake Nelson"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="37"/>
+    <s v="Comedy, Thriller"/>
+    <s v="Coen Brothers"/>
+    <n v="60611975"/>
+    <s v="William H. Macy, Steve Buscemi, Peter Stormare"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="38"/>
+    <s v="Western, Action"/>
+    <s v="George P. Cosmatos"/>
+    <n v="56505065"/>
+    <s v="Kurt Russell, Val Kilmer, Sam Elliott"/>
+  </r>
+  <r>
+    <x v="28"/>
+    <x v="39"/>
+    <s v="Western, Action"/>
+    <s v="Sergio Leone"/>
+    <n v="14516248"/>
+    <s v="Clint Eastwood, Marianne Koch, Gian Maria Volontè"/>
+  </r>
+  <r>
+    <x v="29"/>
+    <x v="40"/>
+    <s v="Western, Action"/>
+    <s v="Sergio Leone"/>
+    <n v="15000000"/>
+    <s v="Clint Eastwood, Lee Van Cleef, Gian Maria Volontè"/>
+  </r>
+  <r>
+    <x v="7"/>
+    <x v="41"/>
+    <s v="Drama"/>
+    <s v="Clint Eastwood"/>
+    <n v="269958228"/>
+    <s v="Clint Eastwood, Christopher Carley, Bee Vang"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="42"/>
+    <s v="Scifi, Horror"/>
+    <s v="David Fincher"/>
+    <n v="159814498"/>
+    <s v="Sigourney Weaver, Charles S. Dutton, Charles Dance"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="43"/>
+    <s v="Comedy"/>
+    <s v="David Dobkin"/>
+    <n v="288485135"/>
+    <s v="Owen Wilson, Vince Vaughn, Christopher Walken"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="44"/>
+    <s v="Comedy"/>
+    <s v="Jared Hess"/>
+    <n v="46138887"/>
+    <s v="Jon Heder, Jon Gries, Aaron Ruell"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="45"/>
+    <s v="Scifi, Mystery"/>
+    <s v="Ridley Scott"/>
+    <n v="41722424"/>
+    <s v="Harrison Ford, Sean Young, Rutger Hauer"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="46"/>
+    <s v="Sci-FI, Action"/>
+    <s v="James Cameron"/>
+    <n v="520881154"/>
+    <s v="Arnold Schwarzenegger, Linda Hamilton, Edward Furlong"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="47"/>
+    <s v="Sports, Comedy"/>
+    <s v="Howard Deutch"/>
+    <n v="50054511"/>
+    <s v="Keanu Reeves, Gene Hackman, Brooke Langton"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="48"/>
+    <s v="Drama, Thriller"/>
+    <s v="James Mangold"/>
+    <n v="44862187"/>
+    <s v="Sylvester Stallone, Harvey Keitel, Ray Liotta"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="49"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Steven Spielberg"/>
+    <n v="1109802321"/>
+    <s v="Sam Neill, Laura Dern, Jeff Goldblum"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="50"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Michael Bay"/>
+    <n v="709709780"/>
+    <s v="Shia LaBeouf, Megan Fox, Josh Duhamel"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="51"/>
+    <s v="Action, Crime"/>
+    <s v="Don Siegel"/>
+    <n v="35988495"/>
+    <s v="Clint Eastwood, Harry Guardino, Reni Santoni"/>
+  </r>
+  <r>
+    <x v="35"/>
+    <x v="52"/>
+    <s v="Action, Crime"/>
+    <s v="Gareth Evans"/>
+    <n v="6566916"/>
+    <s v="Iko Uwais, Arifin Putra, Tio Pakusadewo"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="53"/>
+    <s v="Action, Horror"/>
+    <s v="Stephen Norrington"/>
+    <n v="131211377"/>
+    <s v="Wesley Snipes, Stephen Dorff, Kris Kristofferson"/>
+  </r>
+  <r>
+    <x v="37"/>
+    <x v="54"/>
+    <s v="Action, Thriller"/>
+    <s v="Joseph Kosinski"/>
+    <n v="1495696292"/>
+    <s v="Tom Cruise, Val Kilmer, Miles Teller"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="55"/>
+    <s v="Action, Crime"/>
+    <s v="Dominic Sena"/>
+    <n v="237202299"/>
+    <s v="Nicolas Cage, Giovanni Ribisi, Angelina Jolie"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="56"/>
+    <s v="Drama, Mystery"/>
+    <s v="Richard Kelly"/>
+    <n v="7013602"/>
+    <s v="Jake Gyllenhaal, Holmes Osborne, Maggie Gyllenhaal"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="57"/>
+    <s v="Action, Crime"/>
+    <s v="Luc Besson"/>
+    <n v="19569225"/>
+    <s v="Jean Reno, Gary Oldman, Natalie Portman"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="58"/>
+    <s v="Sports, Comedy"/>
+    <s v="Dennis Dugan"/>
+    <n v="41205099"/>
+    <s v="Adam Sandler, Christopher McDonald, Julie Bowen"/>
+  </r>
+  <r>
+    <x v="5"/>
+    <x v="59"/>
+    <s v="Romantic, Comedy"/>
+    <s v="Mark Waters"/>
+    <n v="130126277"/>
+    <s v="Lindsay Lohan, Rachel McAdams, Tina Fey"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="60"/>
+    <s v="Mystery, Horror"/>
+    <s v="David Lynch"/>
+    <n v="20271953"/>
+    <s v="Naomi Watts, Jeanne Bates, Dan Birnbaum"/>
+  </r>
+  <r>
+    <x v="38"/>
+    <x v="61"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Richard Marquand"/>
+    <n v="475106177"/>
+    <s v="Mark Hamill, Harrison Ford, Carrie Fisher"/>
+  </r>
+  <r>
+    <x v="20"/>
+    <x v="62"/>
+    <s v="Animated, Family"/>
+    <s v="Pete Docter"/>
+    <n v="735099102"/>
+    <s v="Edward Asner, Christopher Plummer, Jordan Nagai"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="63"/>
+    <s v="Animated, Family"/>
+    <s v="Brad Bird"/>
+    <n v="23335817"/>
+    <s v="Jennifer Aniston, Harry Connick Jr., Vin Diesel"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="64"/>
+    <s v="Animated, Family"/>
+    <s v="John Lasseter"/>
+    <n v="497375381"/>
+    <s v="Tom Hanks, Tim Allen, Joan Cusack"/>
+  </r>
+  <r>
+    <x v="11"/>
+    <x v="65"/>
+    <s v="Action, Thriller"/>
+    <s v="John Woo"/>
+    <n v="546388108"/>
+    <s v="Tom Cruise, Dougray Scott, Thandiwe Newton"/>
+  </r>
+  <r>
+    <x v="39"/>
+    <x v="66"/>
+    <s v="Action, Thriller"/>
+    <s v="Christopher McQuarrie"/>
+    <n v="791657398"/>
+    <s v="Tom Cruise, Henry Cavill, Ving Rhames"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="67"/>
+    <s v="Action, Comedy"/>
+    <s v="Hal Needham"/>
+    <n v="126737428"/>
+    <s v="Burt Reynolds, Sally Field, Jerry Reed"/>
+  </r>
+  <r>
+    <x v="34"/>
+    <x v="68"/>
+    <s v="Drama, Crime"/>
+    <s v="William Friedkin"/>
+    <n v="51700666"/>
+    <s v="Gene Hackman, Fernando Rey, Roy Scheider"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="69"/>
+    <s v="Comedy"/>
+    <s v="Rob McKittrick"/>
+    <n v="18637690"/>
+    <s v="Ryan Reynolds, Anna Faris, Justin Long"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="70"/>
+    <s v="Action, Thriller"/>
+    <s v="John Woo"/>
+    <n v="150270147"/>
+    <s v="John Travolta, Christian Slater, Samantha Mathis"/>
+  </r>
+  <r>
+    <x v="19"/>
+    <x v="71"/>
+    <s v="Comedy"/>
+    <s v="Tom Shadyac"/>
+    <n v="107217396"/>
+    <s v="Jim Carrey, Courteney Cox, Sean Young"/>
+  </r>
+  <r>
+    <x v="15"/>
+    <x v="72"/>
+    <s v="Crime,Thriller"/>
+    <s v="Michael Mann"/>
+    <n v="187436818"/>
+    <s v="Al Pacino, Robert De Niro, Val Kilmer"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="73"/>
+    <s v="War, Thriller"/>
+    <s v="Paul Greengrass"/>
+    <n v="113377594"/>
+    <s v="Matt Damon, Jason Isaacs, Greg Kinnear"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="74"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Robert Zemeckis"/>
+    <n v="245077583"/>
+    <s v="Michael J. Fox, Christopher Lloyd, Lea Thompson"/>
+  </r>
+  <r>
+    <x v="6"/>
+    <x v="75"/>
+    <s v="War, Drama"/>
+    <s v="Ridley Scott"/>
+    <n v="218122627"/>
+    <s v="Orlando Bloom, Eva Green, Liam Neeson"/>
+  </r>
+  <r>
+    <x v="41"/>
+    <x v="76"/>
+    <s v="Action, Comedy"/>
+    <s v="Richard Donner"/>
+    <n v="227853986"/>
+    <s v="Mel Gibson, Danny Glover, Joe Pesci"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="77"/>
+    <s v="Drama, Thriller"/>
+    <s v="Coen Brothers"/>
+    <n v="171627434"/>
+    <s v="Tommy Lee Jones, Javier Bardem, Josh Brolin"/>
+  </r>
+  <r>
+    <x v="42"/>
+    <x v="78"/>
+    <s v="Scifi, Thriller"/>
+    <s v="Peter Hyams"/>
+    <n v="17374595"/>
+    <s v="Sean Connery, Peter Boyle, Frances Sternhagen"/>
+  </r>
+  <r>
+    <x v="26"/>
+    <x v="79"/>
+    <s v="Comedy, Drama"/>
+    <s v="Tony Scott"/>
+    <n v="13088850"/>
+    <s v="Christian Slater, Patricia Arquette, Dennis Hopper"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="80"/>
+    <s v="Comedy, Drama"/>
+    <s v="James Foley"/>
+    <n v="10725228"/>
+    <s v="Al Pacino, Jack Lemmon, Alec Baldwin"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="81"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Paul Verhoeven"/>
+    <n v="121214377"/>
+    <s v="Casper Van Dien, Dina Meyer, Denise Richards"/>
+  </r>
+  <r>
+    <x v="12"/>
+    <x v="82"/>
+    <s v="War, Drama"/>
+    <s v="Richard Attenborough"/>
+    <n v="50750000"/>
+    <s v="Sean Connery, Anthony Hopkins, Michael Caine"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="83"/>
+    <s v="War, Drama"/>
+    <s v="Terrence Malick"/>
+    <n v="98126565"/>
+    <s v="Jim Caviezel, Sean Penn, Nick Nolte"/>
+  </r>
+  <r>
+    <x v="24"/>
+    <x v="84"/>
+    <s v="Action, Thriller"/>
+    <s v="Simon West"/>
+    <n v="224012234"/>
+    <s v="Nicolas Cage, John Malkovich, John Cusack"/>
+  </r>
+  <r>
+    <x v="10"/>
+    <x v="85"/>
+    <s v="Romantic, Comedy"/>
+    <s v="Jean-Pierre Jeunet"/>
+    <n v="174122191"/>
+    <s v="Audrey Tautou, Mathieu Kassovitz, Rufus"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="86"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Stephen Hopkins"/>
+    <n v="57120318"/>
+    <s v="Kevin Peter Hall, Danny Glover, Gary Busey"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="87"/>
+    <s v="Romance, Drama"/>
+    <s v="Taylor Hackford"/>
+    <n v="129795554"/>
+    <s v="Richard Gere, Debra Winger, David Keith"/>
+  </r>
+  <r>
+    <x v="27"/>
+    <x v="88"/>
+    <s v="Action, Thriller"/>
+    <s v="Jan de Bont"/>
+    <n v="494580615"/>
+    <s v="Helen Hunt, Bill Paxton, Cary Elwes"/>
+  </r>
+  <r>
+    <x v="0"/>
+    <x v="89"/>
+    <s v="Sports, Drama"/>
+    <s v="Sylvester Stallone"/>
+    <n v="85187855"/>
+    <s v="Sylvester Stallone, Talia Shire, Burt Young"/>
+  </r>
+  <r>
+    <x v="33"/>
+    <x v="90"/>
+    <s v="Drama, Thriller"/>
+    <s v="Paul Thomas Anderson"/>
+    <n v="76182388"/>
+    <s v="Daniel Day-Lewis, Martin Stringer, Matthew Braden Stringer"/>
+  </r>
+  <r>
+    <x v="14"/>
+    <x v="91"/>
+    <s v="Sports, Drama"/>
+    <s v="Oliver Stone"/>
+    <n v="100230832"/>
+    <s v="Al Pacino, Cameron Diaz, Dennis Quaid"/>
+  </r>
+  <r>
+    <x v="43"/>
+    <x v="92"/>
+    <s v="Mystery, Thriller"/>
+    <s v="Alfred Hitchcock"/>
+    <n v="29662"/>
+    <s v="Farley Granger, Ruth Roman, Robert Walker"/>
+  </r>
+  <r>
+    <x v="32"/>
+    <x v="93"/>
+    <s v="Drama, Thriller"/>
+    <s v="Oliver Stone"/>
+    <n v="205405498"/>
+    <s v="Kevin Costner, Gary Oldman, Jack Lemmon"/>
+  </r>
+  <r>
+    <x v="30"/>
+    <x v="94"/>
+    <s v="Action, Crime"/>
+    <s v="John Woo"/>
+    <n v="2518859"/>
+    <s v="Chow Yun-Fat, Tony Leung Chiu-wai, Teresa Mo"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="95"/>
+    <s v="Sci-FI, Action"/>
+    <s v="Paul Verhoeven"/>
+    <n v="261317921"/>
+    <s v="Arnold Schwarzenegger, Rachel Ticotin, Sharon Stone"/>
+  </r>
+  <r>
+    <x v="36"/>
+    <x v="96"/>
+    <s v="Drama, Thriller"/>
+    <s v="Tony Kaye"/>
+    <n v="23875127"/>
+    <s v="Edward Norton, Edward Furlong,Beverly D'Angelo"/>
+  </r>
+  <r>
+    <x v="31"/>
+    <x v="97"/>
+    <s v="Horror, Thriller"/>
+    <s v="Tommy Lee Wallace"/>
+    <n v="14400000"/>
+    <s v="Tom Atkins, Stacey Nelkin,Dan O'Herlihy"/>
+  </r>
+  <r>
+    <x v="40"/>
+    <x v="98"/>
+    <s v="Horror, Thriller"/>
+    <s v="William Peter Blatty"/>
+    <n v="39024251"/>
+    <s v="George C. Scott, Ed Flanders, Brad Dourif"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2E9613FE-55A3-C14D-968A-88A95F6176AB}" name="PivotTable2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:C20" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="2">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D9FC6EFF-FAAD-C24F-867A-7F6F19EEEA8B}" name="PivotTable3" cacheId="9" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Movies Grouped by Year">
+  <location ref="A1:A145" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="45">
+        <item x="43"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="34"/>
+        <item x="17"/>
+        <item x="12"/>
+        <item x="0"/>
+        <item x="8"/>
+        <item x="42"/>
+        <item x="31"/>
+        <item x="38"/>
+        <item x="13"/>
+        <item x="3"/>
+        <item x="1"/>
+        <item x="25"/>
+        <item x="41"/>
+        <item x="40"/>
+        <item x="32"/>
+        <item x="30"/>
+        <item x="26"/>
+        <item x="19"/>
+        <item x="15"/>
+        <item x="27"/>
+        <item x="24"/>
+        <item x="36"/>
+        <item x="14"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="9"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="16"/>
+        <item x="33"/>
+        <item x="7"/>
+        <item x="20"/>
+        <item x="2"/>
+        <item x="18"/>
+        <item x="21"/>
+        <item x="35"/>
+        <item x="23"/>
+        <item x="22"/>
+        <item x="39"/>
+        <item x="37"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="100">
+        <item x="18"/>
+        <item x="82"/>
+        <item x="71"/>
+        <item x="0"/>
+        <item x="42"/>
+        <item x="3"/>
+        <item x="96"/>
+        <item x="87"/>
+        <item x="91"/>
+        <item x="74"/>
+        <item x="6"/>
+        <item x="35"/>
+        <item x="53"/>
+        <item x="45"/>
+        <item x="28"/>
+        <item x="70"/>
+        <item x="22"/>
+        <item x="5"/>
+        <item x="84"/>
+        <item x="48"/>
+        <item x="19"/>
+        <item x="51"/>
+        <item x="24"/>
+        <item x="33"/>
+        <item x="56"/>
+        <item x="13"/>
+        <item x="30"/>
+        <item x="37"/>
+        <item x="34"/>
+        <item x="80"/>
+        <item x="21"/>
+        <item x="55"/>
+        <item x="41"/>
+        <item x="73"/>
+        <item x="97"/>
+        <item x="58"/>
+        <item x="32"/>
+        <item x="72"/>
+        <item x="2"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="93"/>
+        <item x="49"/>
+        <item x="75"/>
+        <item x="94"/>
+        <item x="85"/>
+        <item x="57"/>
+        <item x="76"/>
+        <item x="59"/>
+        <item x="14"/>
+        <item x="66"/>
+        <item x="65"/>
+        <item x="60"/>
+        <item x="44"/>
+        <item x="77"/>
+        <item x="36"/>
+        <item x="78"/>
+        <item x="40"/>
+        <item x="39"/>
+        <item x="1"/>
+        <item x="86"/>
+        <item x="27"/>
+        <item x="25"/>
+        <item x="12"/>
+        <item x="89"/>
+        <item x="20"/>
+        <item x="52"/>
+        <item x="29"/>
+        <item x="67"/>
+        <item x="11"/>
+        <item x="16"/>
+        <item x="61"/>
+        <item x="81"/>
+        <item x="92"/>
+        <item x="46"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="98"/>
+        <item x="68"/>
+        <item x="63"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="4"/>
+        <item x="23"/>
+        <item x="47"/>
+        <item x="83"/>
+        <item x="90"/>
+        <item x="31"/>
+        <item x="17"/>
+        <item x="38"/>
+        <item x="54"/>
+        <item x="95"/>
+        <item x="64"/>
+        <item x="50"/>
+        <item x="79"/>
+        <item x="88"/>
+        <item x="62"/>
+        <item x="69"/>
+        <item x="43"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="144">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="73"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="57"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="78"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="83"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="68"/>
+    </i>
+    <i r="1">
+      <x v="70"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="64"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="75"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="34"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="71"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="88"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i r="1">
+      <x v="87"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="47"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="9"/>
+    </i>
+    <i r="1">
+      <x v="60"/>
+    </i>
+    <i r="1">
+      <x v="77"/>
+    </i>
+    <i r="1">
+      <x v="91"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="74"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="1">
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="44"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="89"/>
+    </i>
+    <i r="1">
+      <x v="94"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i r="1">
+      <x v="20"/>
+    </i>
+    <i r="1">
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="65"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i r="1">
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="95"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="72"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="85"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="79"/>
+    </i>
+    <i r="1">
+      <x v="92"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="49"/>
+    </i>
+    <i r="1">
+      <x v="51"/>
+    </i>
+    <i r="1">
+      <x v="55"/>
+    </i>
+    <i r="1">
+      <x v="69"/>
+    </i>
+    <i r="1">
+      <x v="84"/>
+    </i>
+    <i>
+      <x v="27"/>
+    </i>
+    <i r="1">
+      <x v="11"/>
+    </i>
+    <i r="1">
+      <x v="24"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="80"/>
+    </i>
+    <i>
+      <x v="28"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="63"/>
+    </i>
+    <i r="1">
+      <x v="82"/>
+    </i>
+    <i>
+      <x v="29"/>
+    </i>
+    <i r="1">
+      <x v="81"/>
+    </i>
+    <i>
+      <x v="30"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="48"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i>
+      <x v="31"/>
+    </i>
+    <i r="1">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="97"/>
+    </i>
+    <i r="1">
+      <x v="98"/>
+    </i>
+    <i>
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="54"/>
+    </i>
+    <i r="1">
+      <x v="86"/>
+    </i>
+    <i r="1">
+      <x v="93"/>
+    </i>
+    <i>
+      <x v="34"/>
+    </i>
+    <i r="1">
+      <x v="32"/>
+    </i>
+    <i r="1">
+      <x v="76"/>
+    </i>
+    <i>
+      <x v="35"/>
+    </i>
+    <i r="1">
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="96"/>
+    </i>
+    <i>
+      <x v="36"/>
+    </i>
+    <i r="1">
+      <x v="33"/>
+    </i>
+    <i r="1">
+      <x v="38"/>
+    </i>
+    <i>
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="38"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i>
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i>
+      <x v="41"/>
+    </i>
+    <i r="1">
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i>
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="90"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <formats count="5">
+    <format dxfId="11">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="8">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="7">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1421,22 +5440,1078 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1749CDF4-FC2F-D241-A6D8-A4F7D553CA08}">
+  <dimension ref="A3:C20"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="19"/>
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="24"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="24"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="24"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="24"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="24"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="24"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="24"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="24"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="24"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="24"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="24"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="24"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" s="22"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="24"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="24"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" s="25"/>
+      <c r="B20" s="26"/>
+      <c r="C20" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6465DDD4-0F9C-3245-9B88-BAA7E4A19D59}">
+  <dimension ref="A1:A145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A107" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="A145" sqref="A145"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.1640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="18" bestFit="1" customWidth="1"/>
+    <col min="34" max="35" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="27.83203125" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="10" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="16" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="28.83203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="4.83203125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="9" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="23" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="7.33203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="8" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="7" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="6" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="21" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="74" max="74" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="80" max="80" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="12" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="38.6640625" bestFit="1" customWidth="1"/>
+    <col min="83" max="83" width="35.5" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="30.5" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="9" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="87" max="87" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="18" bestFit="1" customWidth="1"/>
+    <col min="91" max="91" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="10" bestFit="1" customWidth="1"/>
+    <col min="94" max="94" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="95" max="95" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="96" max="96" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="6.83203125" bestFit="1" customWidth="1"/>
+    <col min="98" max="98" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="99" max="99" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="15" bestFit="1" customWidth="1"/>
+    <col min="101" max="101" width="10" bestFit="1" customWidth="1"/>
+    <col min="102" max="102" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="104" max="104" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="105" max="105" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="107" max="107" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="108" max="108" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="110" max="110" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="111" max="111" width="24.6640625" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="27.33203125" bestFit="1" customWidth="1"/>
+    <col min="113" max="113" width="9" bestFit="1" customWidth="1"/>
+    <col min="114" max="114" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="22.5" bestFit="1" customWidth="1"/>
+    <col min="116" max="116" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="117" max="117" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="23" bestFit="1" customWidth="1"/>
+    <col min="119" max="119" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="120" max="120" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11" bestFit="1" customWidth="1"/>
+    <col min="122" max="122" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="123" max="123" width="10" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="125" max="125" width="12" bestFit="1" customWidth="1"/>
+    <col min="126" max="126" width="14.5" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="128" max="128" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="129" max="129" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="131" max="131" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="25.33203125" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="8" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="23.1640625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="8" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="12" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="37" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="16.1640625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="20.33203125" bestFit="1" customWidth="1"/>
+    <col min="149" max="149" width="24.83203125" bestFit="1" customWidth="1"/>
+    <col min="150" max="150" width="27.5" bestFit="1" customWidth="1"/>
+    <col min="151" max="151" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="152" max="152" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="153" max="153" width="14.83203125" bestFit="1" customWidth="1"/>
+    <col min="154" max="154" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="155" max="155" width="20" bestFit="1" customWidth="1"/>
+    <col min="156" max="156" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="157" max="157" width="20.83203125" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="159" max="159" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="160" max="160" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="161" max="161" width="40.33203125" bestFit="1" customWidth="1"/>
+    <col min="162" max="162" width="43" bestFit="1" customWidth="1"/>
+    <col min="163" max="163" width="37.1640625" bestFit="1" customWidth="1"/>
+    <col min="164" max="164" width="39.83203125" bestFit="1" customWidth="1"/>
+    <col min="165" max="165" width="32.1640625" bestFit="1" customWidth="1"/>
+    <col min="166" max="166" width="34.83203125" bestFit="1" customWidth="1"/>
+    <col min="167" max="167" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="168" max="168" width="13.1640625" bestFit="1" customWidth="1"/>
+    <col min="169" max="169" width="17" bestFit="1" customWidth="1"/>
+    <col min="170" max="170" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="171" max="171" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="172" max="172" width="19" bestFit="1" customWidth="1"/>
+    <col min="173" max="173" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="174" max="174" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="175" max="175" width="10" bestFit="1" customWidth="1"/>
+    <col min="176" max="176" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="177" max="177" width="19.6640625" bestFit="1" customWidth="1"/>
+    <col min="178" max="178" width="22.33203125" bestFit="1" customWidth="1"/>
+    <col min="179" max="179" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="180" max="180" width="14" bestFit="1" customWidth="1"/>
+    <col min="181" max="181" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="182" max="182" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="183" max="183" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="184" max="184" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="185" max="185" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="186" max="186" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="187" max="187" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="188" max="188" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="189" max="189" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="190" max="190" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="191" max="191" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="192" max="192" width="11" bestFit="1" customWidth="1"/>
+    <col min="193" max="193" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="194" max="194" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="195" max="195" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="196" max="196" width="12.83203125" bestFit="1" customWidth="1"/>
+    <col min="197" max="197" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="198" max="198" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="199" max="199" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="29" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="1">
+        <v>1951</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="1">
+        <v>1964</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1">
+        <v>1965</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" s="1">
+        <v>1971</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="28" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>1977</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="28" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" s="28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1">
+        <v>1979</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1">
+        <v>1980</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="28" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1">
+        <v>1981</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="1">
+        <v>1983</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="28" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="1">
+        <v>1985</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="28" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="1">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A33" s="28" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A34" s="1">
+        <v>1987</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A35" s="28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A36" s="1">
+        <v>1988</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A37" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A38" s="1">
+        <v>1989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A39" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A40" s="1">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A42" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A44" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="1">
+        <v>1991</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A47" s="28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A48" s="1">
+        <v>1992</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A49" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A50" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A51" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A52" s="1">
+        <v>1993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A53" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A54" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A55" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A56" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A57" s="1">
+        <v>1994</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A58" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="28" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A62" s="28" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A63" s="28" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A64" s="28" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A65" s="28" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A66" s="1">
+        <v>1996</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A67" s="28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A68" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A69" s="28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A70" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A71" s="1">
+        <v>1997</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A72" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A73" s="28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A74" s="28" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A75" s="28" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A76" s="1">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A77" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A80" s="1">
+        <v>1999</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="1">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1">
+        <v>2001</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="28" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="28" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" s="1">
+        <v>2002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" s="28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" s="28" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" s="28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" s="1">
+        <v>2003</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" s="28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A106" s="1">
+        <v>2004</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A107" s="28" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A108" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A109" s="28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A110" s="28" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A111" s="1">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A112" s="28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="28" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A116" s="1">
+        <v>2006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A118" s="1">
+        <v>2007</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1">
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A124" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A125" s="1">
+        <v>2009</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="28" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1">
+        <v>2010</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A129" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A130" s="28" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A131" s="1">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="28" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="1">
+        <v>2014</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A137" s="1">
+        <v>2015</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A139" s="1">
+        <v>2017</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A140" s="28" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A141" s="1">
+        <v>2018</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A142" s="28" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A143" s="1">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2 A4 A6 A8 A11 A13 A17 A20 A22 A24 A28 A30 A32 A34 A36 A38 A40 A45 A48 A52 A57 A61 A66 A71 A76 A80 A85 A93 A99 A104 A106 A111 A116 A118 A122 A125 A128 A131 A133 A135 A137 A139 A141 A143">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFF7128"/>
+        <color rgb="FFFFEF9C"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G100"/>
+  <dimension ref="A1:G103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C82" workbookViewId="0">
-      <selection activeCell="G102" sqref="G102"/>
+    <sheetView tabSelected="1" topLeftCell="A95" workbookViewId="0">
+      <selection activeCell="C113" sqref="C113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+    <col min="1" max="1" width="43.83203125" customWidth="1"/>
     <col min="2" max="2" width="44" style="2" customWidth="1"/>
     <col min="3" max="3" width="41.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="35.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="26" style="1" customWidth="1"/>
     <col min="6" max="6" width="37" customWidth="1"/>
-    <col min="7" max="7" width="51" customWidth="1"/>
+    <col min="7" max="7" width="64" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="21" x14ac:dyDescent="0.25">
@@ -3736,9 +8811,18 @@
         <v>312</v>
       </c>
     </row>
+    <row r="103" spans="1:7" ht="24" x14ac:dyDescent="0.3">
+      <c r="A103" s="30" t="s">
+        <v>315</v>
+      </c>
+      <c r="B103" s="31" t="str" cm="1">
+        <f t="array" ref="B103">INDEX(E2:E100,MODE(MATCH(E2:E100,E2:E100,0)))</f>
+        <v>Ridley Scott</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A100">
-    <cfRule type="colorScale" priority="4">
+  <conditionalFormatting sqref="A2:A100 A103">
+    <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -3748,7 +8832,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="iconSet" priority="6">
+    <cfRule type="iconSet" priority="7">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3756,8 +8840,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:A100">
-    <cfRule type="iconSet" priority="5">
+  <conditionalFormatting sqref="A2:A100 A103">
+    <cfRule type="iconSet" priority="6">
       <iconSet>
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -3766,7 +8850,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B100">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3778,7 +8862,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="2">
+    <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3790,7 +8874,7 @@
         </ext>
       </extLst>
     </cfRule>
-    <cfRule type="dataBar" priority="3">
+    <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -3801,6 +8885,18 @@
           <x14:id>{517BD6A4-EC9B-4049-9631-860F4E1DF4CF}</x14:id>
         </ext>
       </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A103">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
